--- a/docs/诀要成长报表.xlsx
+++ b/docs/诀要成长报表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
   <si>
     <t>诀要类型</t>
   </si>
@@ -50,10 +50,10 @@
     <t>白</t>
   </si>
   <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>394</t>
+    <t>205</t>
+  </si>
+  <si>
+    <t>410</t>
   </si>
   <si>
     <t>0</t>
@@ -62,43 +62,37 @@
     <t>绿</t>
   </si>
   <si>
+    <t>1364</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
-    <t>765</t>
-  </si>
-  <si>
-    <t>蓝</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>1251</t>
+    <t>3317</t>
   </si>
   <si>
     <t>紫</t>
   </si>
   <si>
+    <t>6600</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
     <t>203</t>
   </si>
   <si>
-    <t>1827</t>
-  </si>
-  <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>2423</t>
+    <t>11551</t>
   </si>
   <si>
     <t>橙</t>
   </si>
   <si>
-    <t>3186</t>
+    <t>18282</t>
   </si>
   <si>
     <t>红</t>
@@ -107,28 +101,28 @@
     <t>204</t>
   </si>
   <si>
-    <t>3982</t>
+    <t>26650</t>
   </si>
   <si>
     <t>闪金</t>
   </si>
   <si>
-    <t>4654</t>
+    <t>198</t>
+  </si>
+  <si>
+    <t>36039</t>
   </si>
   <si>
     <t>闪橙</t>
   </si>
   <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>5740</t>
+    <t>48800</t>
   </si>
   <si>
     <t>闪红</t>
   </si>
   <si>
-    <t>6524</t>
+    <t>64397</t>
   </si>
   <si>
     <t>2</t>
@@ -140,64 +134,64 @@
     <t>增减益气血上限比例</t>
   </si>
   <si>
-    <t>0.1580061</t>
-  </si>
-  <si>
-    <t>0.3160122</t>
-  </si>
-  <si>
-    <t>0.1594496</t>
-  </si>
-  <si>
-    <t>0.5257686</t>
-  </si>
-  <si>
-    <t>0.1476129</t>
-  </si>
-  <si>
-    <t>0.6992706</t>
-  </si>
-  <si>
-    <t>0.1277147</t>
-  </si>
-  <si>
-    <t>0.8017968</t>
-  </si>
-  <si>
-    <t>0.1304296</t>
-  </si>
-  <si>
-    <t>1.030218</t>
-  </si>
-  <si>
-    <t>0.1338414</t>
-  </si>
-  <si>
-    <t>1.282979</t>
-  </si>
-  <si>
-    <t>0.1266262</t>
-  </si>
-  <si>
-    <t>1.434728</t>
-  </si>
-  <si>
-    <t>0.1302273</t>
-  </si>
-  <si>
-    <t>1.709329</t>
-  </si>
-  <si>
-    <t>0.1263996</t>
-  </si>
-  <si>
-    <t>1.891774</t>
-  </si>
-  <si>
-    <t>0.1049065</t>
-  </si>
-  <si>
-    <t>1.767563</t>
+    <t>0.1185053</t>
+  </si>
+  <si>
+    <t>0.2370105</t>
+  </si>
+  <si>
+    <t>0.1409051</t>
+  </si>
+  <si>
+    <t>0.4646201</t>
+  </si>
+  <si>
+    <t>0.162579</t>
+  </si>
+  <si>
+    <t>0.7701681</t>
+  </si>
+  <si>
+    <t>0.1312153</t>
+  </si>
+  <si>
+    <t>0.8237739</t>
+  </si>
+  <si>
+    <t>0.1206489</t>
+  </si>
+  <si>
+    <t>0.9529634</t>
+  </si>
+  <si>
+    <t>0.1588963</t>
+  </si>
+  <si>
+    <t>1.52315</t>
+  </si>
+  <si>
+    <t>0.1255639</t>
+  </si>
+  <si>
+    <t>1.422691</t>
+  </si>
+  <si>
+    <t>0.1445911</t>
+  </si>
+  <si>
+    <t>1.897864</t>
+  </si>
+  <si>
+    <t>0.1610495</t>
+  </si>
+  <si>
+    <t>2.410366</t>
+  </si>
+  <si>
+    <t>0.106032</t>
+  </si>
+  <si>
+    <t>1.786526</t>
   </si>
   <si>
     <t>3</t>
@@ -209,865 +203,1003 @@
     <t>增减益外功点数</t>
   </si>
   <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1299</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>1816</t>
+  </si>
+  <si>
+    <t>2589</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>3044</t>
+  </si>
+  <si>
+    <t>4106</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>5255</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>开山</t>
+  </si>
+  <si>
+    <t>增减益外功比例</t>
+  </si>
+  <si>
+    <t>0.09301438</t>
+  </si>
+  <si>
+    <t>0.1860288</t>
+  </si>
+  <si>
+    <t>0.09369206</t>
+  </si>
+  <si>
+    <t>0.3980985</t>
+  </si>
+  <si>
+    <t>0.09526253</t>
+  </si>
+  <si>
+    <t>0.7118977</t>
+  </si>
+  <si>
+    <t>0.1062834</t>
+  </si>
+  <si>
+    <t>1.228218</t>
+  </si>
+  <si>
+    <t>0.09337937</t>
+  </si>
+  <si>
+    <t>1.533835</t>
+  </si>
+  <si>
+    <t>0.09470216</t>
+  </si>
+  <si>
+    <t>2.086371</t>
+  </si>
+  <si>
+    <t>0.104377</t>
+  </si>
+  <si>
+    <t>2.957177</t>
+  </si>
+  <si>
+    <t>0.09245995</t>
+  </si>
+  <si>
+    <t>3.263536</t>
+  </si>
+  <si>
+    <t>0.100949</t>
+  </si>
+  <si>
+    <t>4.330696</t>
+  </si>
+  <si>
+    <t>0.09185575</t>
+  </si>
+  <si>
+    <t>4.695549</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>坚毅</t>
+  </si>
+  <si>
+    <t>增减益外防点数</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>836</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>1221</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>1327</t>
+  </si>
+  <si>
+    <t>2078</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>刚强</t>
+  </si>
+  <si>
+    <t>增减益外防比例</t>
+  </si>
+  <si>
+    <t>0.0522858</t>
+  </si>
+  <si>
+    <t>0.1045716</t>
+  </si>
+  <si>
+    <t>0.06574147</t>
+  </si>
+  <si>
+    <t>0.227616</t>
+  </si>
+  <si>
+    <t>0.07771763</t>
+  </si>
+  <si>
+    <t>0.4018909</t>
+  </si>
+  <si>
+    <t>0.07565171</t>
+  </si>
+  <si>
+    <t>0.5343179</t>
+  </si>
+  <si>
+    <t>0.07380337</t>
+  </si>
+  <si>
+    <t>0.6718529</t>
+  </si>
+  <si>
+    <t>0.06315789</t>
+  </si>
+  <si>
+    <t>0.7118284</t>
+  </si>
+  <si>
+    <t>0.06871087</t>
+  </si>
+  <si>
+    <t>0.9309999</t>
+  </si>
+  <si>
+    <t>0.05438827</t>
+  </si>
+  <si>
+    <t>0.8663249</t>
+  </si>
+  <si>
+    <t>0.07489769</t>
+  </si>
+  <si>
+    <t>1.378015</t>
+  </si>
+  <si>
+    <t>0.05420276</t>
+  </si>
+  <si>
+    <t>1.13569</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>暗流</t>
+  </si>
+  <si>
+    <t>增减益内功点数</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>1246</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>1663</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>2092</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>3180</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>3674</t>
+  </si>
+  <si>
+    <t>5053</t>
+  </si>
+  <si>
+    <t>6024</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>怒涛</t>
+  </si>
+  <si>
+    <t>增减益内功比例</t>
+  </si>
+  <si>
+    <t>0.0910346</t>
+  </si>
+  <si>
+    <t>0.1820692</t>
+  </si>
+  <si>
+    <t>0.09224153</t>
+  </si>
+  <si>
+    <t>0.3919352</t>
+  </si>
+  <si>
+    <t>0.1037552</t>
+  </si>
+  <si>
+    <t>0.7753633</t>
+  </si>
+  <si>
+    <t>0.1059374</t>
+  </si>
+  <si>
+    <t>1.22422</t>
+  </si>
+  <si>
+    <t>0.1094903</t>
+  </si>
+  <si>
+    <t>1.79847</t>
+  </si>
+  <si>
+    <t>0.1049273</t>
+  </si>
+  <si>
+    <t>2.311639</t>
+  </si>
+  <si>
+    <t>0.09162142</t>
+  </si>
+  <si>
+    <t>2.595791</t>
+  </si>
+  <si>
+    <t>0.09743629</t>
+  </si>
+  <si>
+    <t>3.439185</t>
+  </si>
+  <si>
+    <t>0.0961699</t>
+  </si>
+  <si>
+    <t>4.125672</t>
+  </si>
+  <si>
+    <t>0.1043768</t>
+  </si>
+  <si>
+    <t>5.335607</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>磐石</t>
+  </si>
+  <si>
+    <t>增减益内防点数</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>734</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>1315</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2162</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>涅槃</t>
+  </si>
+  <si>
+    <t>增减益内防比例</t>
+  </si>
+  <si>
+    <t>0.06078143</t>
+  </si>
+  <si>
+    <t>0.1215629</t>
+  </si>
+  <si>
+    <t>0.06613125</t>
+  </si>
+  <si>
+    <t>0.2289655</t>
+  </si>
+  <si>
+    <t>0.05264325</t>
+  </si>
+  <si>
+    <t>0.2722271</t>
+  </si>
+  <si>
+    <t>0.0629316</t>
+  </si>
+  <si>
+    <t>0.4444775</t>
+  </si>
+  <si>
+    <t>0.07004111</t>
+  </si>
+  <si>
+    <t>0.6376039</t>
+  </si>
+  <si>
+    <t>0.0708314</t>
+  </si>
+  <si>
+    <t>0.7983136</t>
+  </si>
+  <si>
+    <t>0.07043314</t>
+  </si>
+  <si>
+    <t>0.9543358</t>
+  </si>
+  <si>
+    <t>0.06261822</t>
+  </si>
+  <si>
+    <t>0.9974159</t>
+  </si>
+  <si>
+    <t>0.05617023</t>
+  </si>
+  <si>
+    <t>1.033455</t>
+  </si>
+  <si>
+    <t>0.05678904</t>
+  </si>
+  <si>
+    <t>1.189879</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>追命</t>
+  </si>
+  <si>
+    <t>增减益固定伤害值</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>892</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>1561</t>
+  </si>
+  <si>
+    <t>2657</t>
+  </si>
+  <si>
+    <t>3695</t>
+  </si>
+  <si>
+    <t>4362</t>
+  </si>
+  <si>
+    <t>5609</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>7306</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>9094</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>10019</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>骁勇</t>
+  </si>
+  <si>
+    <t>增减益伤害比例</t>
+  </si>
+  <si>
+    <t>0.07803486</t>
+  </si>
+  <si>
+    <t>0.1560697</t>
+  </si>
+  <si>
+    <t>0.07602911</t>
+  </si>
+  <si>
+    <t>0.2390011</t>
+  </si>
+  <si>
+    <t>0.06705734</t>
+  </si>
+  <si>
+    <t>0.2915901</t>
+  </si>
+  <si>
+    <t>0.06103955</t>
+  </si>
+  <si>
+    <t>0.3415037</t>
+  </si>
+  <si>
+    <t>0.05545553</t>
+  </si>
+  <si>
+    <t>0.3811511</t>
+  </si>
+  <si>
+    <t>0.05998693</t>
+  </si>
+  <si>
+    <t>0.4905364</t>
+  </si>
+  <si>
+    <t>0.06428295</t>
+  </si>
+  <si>
+    <t>0.6109258</t>
+  </si>
+  <si>
+    <t>0.06079044</t>
+  </si>
+  <si>
+    <t>0.6595249</t>
+  </si>
+  <si>
+    <t>0.05076902</t>
+  </si>
+  <si>
+    <t>0.6199698</t>
+  </si>
+  <si>
+    <t>0.05342859</t>
+  </si>
+  <si>
+    <t>0.7260547</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>布阵</t>
+  </si>
+  <si>
+    <t>增减益减伤比例</t>
+  </si>
+  <si>
+    <t>0.05848952</t>
+  </si>
+  <si>
+    <t>0.116979</t>
+  </si>
+  <si>
+    <t>0.06162066</t>
+  </si>
+  <si>
+    <t>0.1937075</t>
+  </si>
+  <si>
+    <t>0.05027333</t>
+  </si>
+  <si>
+    <t>0.218607</t>
+  </si>
+  <si>
+    <t>0.06112467</t>
+  </si>
+  <si>
+    <t>0.34198</t>
+  </si>
+  <si>
+    <t>0.06082261</t>
+  </si>
+  <si>
+    <t>0.4180396</t>
+  </si>
+  <si>
+    <t>0.0567699</t>
+  </si>
+  <si>
+    <t>0.4642295</t>
+  </si>
+  <si>
+    <t>0.07388958</t>
+  </si>
+  <si>
+    <t>0.7022243</t>
+  </si>
+  <si>
+    <t>0.05279085</t>
+  </si>
+  <si>
+    <t>0.5727361</t>
+  </si>
+  <si>
+    <t>0.07165047</t>
+  </si>
+  <si>
+    <t>0.8749654</t>
+  </si>
+  <si>
+    <t>0.07806825</t>
+  </si>
+  <si>
+    <t>1.060889</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>轻灵</t>
+  </si>
+  <si>
+    <t>增减益轻功点数</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>66</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>驭毒</t>
+  </si>
+  <si>
+    <t>中毒抵抗</t>
+  </si>
+  <si>
+    <t>站桩</t>
+  </si>
+  <si>
+    <t>缴械抵抗</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>清醒</t>
+  </si>
+  <si>
+    <t>眩晕抵抗</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>腾挪</t>
+  </si>
+  <si>
+    <t>定身抵抗</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>敏锐</t>
+  </si>
+  <si>
+    <t>迟缓抵抗</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>沉稳</t>
+  </si>
+  <si>
+    <t>混乱抵抗</t>
+  </si>
+  <si>
+    <t>冷静</t>
+  </si>
+  <si>
+    <t>惊慌抵抗</t>
+  </si>
+  <si>
+    <t>行云流水</t>
+  </si>
+  <si>
+    <t>减少武功招式CD时间</t>
+  </si>
+  <si>
+    <t>0.02944191</t>
+  </si>
+  <si>
+    <t>0.02821939</t>
+  </si>
+  <si>
+    <t>0.02774413</t>
+  </si>
+  <si>
+    <t>0.02869394</t>
+  </si>
+  <si>
+    <t>0.02748562</t>
+  </si>
+  <si>
+    <t>0.05497125</t>
+  </si>
+  <si>
+    <t>0.02942399</t>
+  </si>
+  <si>
+    <t>0.14712</t>
+  </si>
+  <si>
+    <t>0.02867411</t>
+  </si>
+  <si>
+    <t>0.2867411</t>
+  </si>
+  <si>
+    <t>0.02706136</t>
+  </si>
+  <si>
+    <t>0.4600432</t>
+  </si>
+  <si>
+    <t>0.0283587</t>
+  </si>
+  <si>
+    <t>0.7373261</t>
+  </si>
+  <si>
+    <t>0.02846166</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>不死金刚</t>
+  </si>
+  <si>
+    <t>抵御n次阵亡效果</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>一击必杀</t>
+  </si>
+  <si>
+    <t>n%概率秒杀敌方(对Boss无效)</t>
+  </si>
+  <si>
+    <t>0.02669576</t>
+  </si>
+  <si>
+    <t>0.02907613</t>
+  </si>
+  <si>
+    <t>0.02855166</t>
+  </si>
+  <si>
+    <t>0.02754382</t>
+  </si>
+  <si>
+    <t>0.02683454</t>
+  </si>
+  <si>
+    <t>0.02746781</t>
+  </si>
+  <si>
+    <t>0.02419628</t>
+  </si>
+  <si>
+    <t>0.02339366</t>
+  </si>
+  <si>
+    <t>0.04678731</t>
+  </si>
+  <si>
+    <t>0.02728597</t>
+  </si>
+  <si>
+    <t>0.0818579</t>
+  </si>
+  <si>
+    <t>0.02145913</t>
+  </si>
+  <si>
+    <t>0.08583651</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>盆满钵满</t>
+  </si>
+  <si>
+    <t>增加掉落概率n%</t>
+  </si>
+  <si>
+    <t>0.02336242</t>
+  </si>
+  <si>
+    <t>0.02288763</t>
+  </si>
+  <si>
+    <t>0.02485816</t>
+  </si>
+  <si>
+    <t>0.02135573</t>
+  </si>
+  <si>
+    <t>0.02167194</t>
+  </si>
+  <si>
+    <t>0.04334387</t>
+  </si>
+  <si>
+    <t>0.02038723</t>
+  </si>
+  <si>
+    <t>0.06116169</t>
+  </si>
+  <si>
+    <t>0.02368443</t>
+  </si>
+  <si>
+    <t>0.09473771</t>
+  </si>
+  <si>
+    <t>0.0232072</t>
+  </si>
+  <si>
+    <t>0.116036</t>
+  </si>
+  <si>
+    <t>0.02103826</t>
+  </si>
+  <si>
+    <t>0.1262295</t>
+  </si>
+  <si>
+    <t>0.02278252</t>
+  </si>
+  <si>
+    <t>0.1594777</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>活血</t>
+  </si>
+  <si>
+    <t>增加气血恢复点数</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>2340</t>
+  </si>
+  <si>
+    <t>3848</t>
+  </si>
+  <si>
+    <t>4800</t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>开山</t>
-  </si>
-  <si>
-    <t>增减益外功比例</t>
-  </si>
-  <si>
-    <t>0.08490168</t>
-  </si>
-  <si>
-    <t>0.1698034</t>
-  </si>
-  <si>
-    <t>0.05886688</t>
-  </si>
-  <si>
-    <t>0.1941075</t>
-  </si>
-  <si>
-    <t>0.06632859</t>
-  </si>
-  <si>
-    <t>0.3142113</t>
-  </si>
-  <si>
-    <t>0.05584607</t>
-  </si>
-  <si>
-    <t>0.3506034</t>
-  </si>
-  <si>
-    <t>0.0601569</t>
-  </si>
-  <si>
-    <t>0.4751582</t>
-  </si>
-  <si>
-    <t>0.09503487</t>
-  </si>
-  <si>
-    <t>0.9109867</t>
-  </si>
-  <si>
-    <t>0.05580623</t>
-  </si>
-  <si>
-    <t>0.6323076</t>
-  </si>
-  <si>
-    <t>0.07328662</t>
-  </si>
-  <si>
-    <t>0.9619406</t>
-  </si>
-  <si>
-    <t>0.07366424</t>
-  </si>
-  <si>
-    <t>1.102504</t>
-  </si>
-  <si>
-    <t>0.06230748</t>
-  </si>
-  <si>
-    <t>1.049815</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>坚毅</t>
-  </si>
-  <si>
-    <t>增减益外防点数</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>刚强</t>
-  </si>
-  <si>
-    <t>增减益外防比例</t>
-  </si>
-  <si>
-    <t>0.06346402</t>
-  </si>
-  <si>
-    <t>0.126928</t>
-  </si>
-  <si>
-    <t>0.0744058</t>
-  </si>
-  <si>
-    <t>0.2039538</t>
-  </si>
-  <si>
-    <t>0.06141913</t>
-  </si>
-  <si>
-    <t>0.2093302</t>
-  </si>
-  <si>
-    <t>0.06156928</t>
-  </si>
-  <si>
-    <t>0.2482124</t>
-  </si>
-  <si>
-    <t>0.06334335</t>
-  </si>
-  <si>
-    <t>0.2928932</t>
-  </si>
-  <si>
-    <t>0.07040988</t>
-  </si>
-  <si>
-    <t>0.3656359</t>
-  </si>
-  <si>
-    <t>0.0617468</t>
-  </si>
-  <si>
-    <t>0.354629</t>
-  </si>
-  <si>
-    <t>0.07809832</t>
-  </si>
-  <si>
-    <t>0.4903037</t>
-  </si>
-  <si>
-    <t>0.06624418</t>
-  </si>
-  <si>
-    <t>0.4504304</t>
-  </si>
-  <si>
-    <t>0.06151125</t>
-  </si>
-  <si>
-    <t>0.449621</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>暗流</t>
-  </si>
-  <si>
-    <t>增减益内功点数</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>551</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>怒涛</t>
-  </si>
-  <si>
-    <t>增减益内功比例</t>
-  </si>
-  <si>
-    <t>0.0803142</t>
-  </si>
-  <si>
-    <t>0.1606284</t>
-  </si>
-  <si>
-    <t>0.0643554</t>
-  </si>
-  <si>
-    <t>0.2122053</t>
-  </si>
-  <si>
-    <t>0.06027535</t>
-  </si>
-  <si>
-    <t>0.285536</t>
-  </si>
-  <si>
-    <t>0.08122846</t>
-  </si>
-  <si>
-    <t>0.5099549</t>
-  </si>
-  <si>
-    <t>0.07411393</t>
-  </si>
-  <si>
-    <t>0.5853999</t>
-  </si>
-  <si>
-    <t>0.05898397</t>
-  </si>
-  <si>
-    <t>0.5654095</t>
-  </si>
-  <si>
-    <t>0.102596</t>
-  </si>
-  <si>
-    <t>1.162455</t>
-  </si>
-  <si>
-    <t>0.08875922</t>
-  </si>
-  <si>
-    <t>1.16503</t>
-  </si>
-  <si>
-    <t>0.06462747</t>
-  </si>
-  <si>
-    <t>0.9672542</t>
-  </si>
-  <si>
-    <t>0.09937</t>
-  </si>
-  <si>
-    <t>1.674278</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>磐石</t>
-  </si>
-  <si>
-    <t>增减益内防点数</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>涅槃</t>
-  </si>
-  <si>
-    <t>增减益内防比例</t>
-  </si>
-  <si>
-    <t>0.07995632</t>
-  </si>
-  <si>
-    <t>0.1599126</t>
-  </si>
-  <si>
-    <t>0.06641574</t>
-  </si>
-  <si>
-    <t>0.1820523</t>
-  </si>
-  <si>
-    <t>0.05082247</t>
-  </si>
-  <si>
-    <t>0.1732144</t>
-  </si>
-  <si>
-    <t>0.07500367</t>
-  </si>
-  <si>
-    <t>0.3023723</t>
-  </si>
-  <si>
-    <t>0.07325872</t>
-  </si>
-  <si>
-    <t>0.3387409</t>
-  </si>
-  <si>
-    <t>0.07081833</t>
-  </si>
-  <si>
-    <t>0.367757</t>
-  </si>
-  <si>
-    <t>0.07156697</t>
-  </si>
-  <si>
-    <t>0.4110289</t>
-  </si>
-  <si>
-    <t>0.07515494</t>
-  </si>
-  <si>
-    <t>0.4718251</t>
-  </si>
-  <si>
-    <t>0.07934337</t>
-  </si>
-  <si>
-    <t>0.5394989</t>
-  </si>
-  <si>
-    <t>0.07164415</t>
-  </si>
-  <si>
-    <t>0.5236882</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>追命</t>
-  </si>
-  <si>
-    <t>增减益固定伤害值</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>761</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>1042</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>1437</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>1484</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>2164</t>
-  </si>
-  <si>
-    <t>2625</t>
-  </si>
-  <si>
-    <t>2978</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>3268</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>骁勇</t>
-  </si>
-  <si>
-    <t>增减益伤害比例</t>
-  </si>
-  <si>
-    <t>0.05631523</t>
-  </si>
-  <si>
-    <t>0.1126305</t>
-  </si>
-  <si>
-    <t>0.05949411</t>
-  </si>
-  <si>
-    <t>0.1870225</t>
-  </si>
-  <si>
-    <t>0.05201498</t>
-  </si>
-  <si>
-    <t>0.2261804</t>
-  </si>
-  <si>
-    <t>0.05091848</t>
-  </si>
-  <si>
-    <t>0.2848784</t>
-  </si>
-  <si>
-    <t>0.0785512</t>
-  </si>
-  <si>
-    <t>0.5398898</t>
-  </si>
-  <si>
-    <t>0.05378738</t>
-  </si>
-  <si>
-    <t>0.4398403</t>
-  </si>
-  <si>
-    <t>0.07772825</t>
-  </si>
-  <si>
-    <t>0.7387058</t>
-  </si>
-  <si>
-    <t>0.05110205</t>
-  </si>
-  <si>
-    <t>0.5544141</t>
-  </si>
-  <si>
-    <t>0.07430066</t>
-  </si>
-  <si>
-    <t>0.9073284</t>
-  </si>
-  <si>
-    <t>0.06347231</t>
-  </si>
-  <si>
-    <t>0.8625413</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>布阵</t>
-  </si>
-  <si>
-    <t>增减益减伤比例</t>
-  </si>
-  <si>
-    <t>0.05950341</t>
-  </si>
-  <si>
-    <t>0.1190068</t>
-  </si>
-  <si>
-    <t>0.05675131</t>
-  </si>
-  <si>
-    <t>0.1784004</t>
-  </si>
-  <si>
-    <t>0.06079233</t>
-  </si>
-  <si>
-    <t>0.2643476</t>
-  </si>
-  <si>
-    <t>0.05393099</t>
-  </si>
-  <si>
-    <t>0.3017328</t>
-  </si>
-  <si>
-    <t>0.05623434</t>
-  </si>
-  <si>
-    <t>0.386504</t>
-  </si>
-  <si>
-    <t>0.06331579</t>
-  </si>
-  <si>
-    <t>0.5177578</t>
-  </si>
-  <si>
-    <t>0.05300448</t>
-  </si>
-  <si>
-    <t>0.5037386</t>
-  </si>
-  <si>
-    <t>0.07265113</t>
-  </si>
-  <si>
-    <t>0.7882034</t>
-  </si>
-  <si>
-    <t>0.07753626</t>
-  </si>
-  <si>
-    <t>0.9468402</t>
-  </si>
-  <si>
-    <t>0.06891977</t>
-  </si>
-  <si>
-    <t>0.9365683</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>轻灵</t>
-  </si>
-  <si>
-    <t>增减益轻功点数</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>驭毒</t>
-  </si>
-  <si>
-    <t>中毒抵抗</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>站桩</t>
-  </si>
-  <si>
-    <t>缴械抵抗</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>清醒</t>
-  </si>
-  <si>
-    <t>眩晕抵抗</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>腾挪</t>
-  </si>
-  <si>
-    <t>定身抵抗</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>敏锐</t>
-  </si>
-  <si>
-    <t>迟缓抵抗</t>
-  </si>
-  <si>
-    <t>沉稳</t>
-  </si>
-  <si>
-    <t>混乱抵抗</t>
-  </si>
-  <si>
-    <t>冷静</t>
-  </si>
-  <si>
-    <t>惊慌抵抗</t>
-  </si>
-  <si>
-    <t>行云流水</t>
-  </si>
-  <si>
-    <t>减少武功招式CD时间</t>
-  </si>
-  <si>
-    <t>0.02751309</t>
-  </si>
-  <si>
-    <t>0.02801992</t>
-  </si>
-  <si>
-    <t>0.02780802</t>
-  </si>
-  <si>
-    <t>0.02742516</t>
-  </si>
-  <si>
-    <t>0.02926005</t>
-  </si>
-  <si>
-    <t>0.0585201</t>
-  </si>
-  <si>
-    <t>0.02800182</t>
-  </si>
-  <si>
-    <t>0.1072029</t>
-  </si>
-  <si>
-    <t>0.02890476</t>
-  </si>
-  <si>
-    <t>0.1790983</t>
-  </si>
-  <si>
-    <t>0.02928994</t>
-  </si>
-  <si>
-    <t>0.2636094</t>
-  </si>
-  <si>
-    <t>0.02711936</t>
-  </si>
-  <si>
-    <t>0.330323</t>
-  </si>
-  <si>
-    <t>0.02792089</t>
-  </si>
-  <si>
-    <t>0.4382724</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>不死金刚</t>
-  </si>
-  <si>
-    <t>抵御n次阵亡效果</t>
-  </si>
-  <si>
-    <t>一击必杀</t>
-  </si>
-  <si>
-    <t>n%概率秒杀敌方(对Boss无效)</t>
-  </si>
-  <si>
-    <t>0.02317774</t>
-  </si>
-  <si>
-    <t>0.0145176</t>
-  </si>
-  <si>
-    <t>0.02170183</t>
-  </si>
-  <si>
-    <t>0.01026242</t>
-  </si>
-  <si>
-    <t>0.02224432</t>
-  </si>
-  <si>
-    <t>0.02306306</t>
-  </si>
-  <si>
-    <t>0.02163669</t>
-  </si>
-  <si>
-    <t>0.0188374</t>
-  </si>
-  <si>
-    <t>0.03767481</t>
-  </si>
-  <si>
-    <t>0.01431005</t>
-  </si>
-  <si>
-    <t>0.04293016</t>
-  </si>
-  <si>
-    <t>0.01432032</t>
-  </si>
-  <si>
-    <t>0.05728129</t>
-  </si>
-  <si>
-    <t>盆满钵满</t>
-  </si>
-  <si>
-    <t>增加掉落概率n%</t>
-  </si>
-  <si>
-    <t>0.01560471</t>
-  </si>
-  <si>
-    <t>0.01566668</t>
-  </si>
-  <si>
-    <t>0.01646024</t>
-  </si>
-  <si>
-    <t>0.01628613</t>
-  </si>
-  <si>
-    <t>0.01940857</t>
-  </si>
-  <si>
-    <t>0.03881713</t>
-  </si>
-  <si>
-    <t>0.01863058</t>
-  </si>
-  <si>
-    <t>0.05589173</t>
-  </si>
-  <si>
-    <t>0.01629249</t>
-  </si>
-  <si>
-    <t>0.06516996</t>
-  </si>
-  <si>
-    <t>0.0172821</t>
-  </si>
-  <si>
-    <t>0.08641051</t>
-  </si>
-  <si>
-    <t>0.01807789</t>
-  </si>
-  <si>
-    <t>0.1084674</t>
-  </si>
-  <si>
-    <t>0.01589163</t>
-  </si>
-  <si>
-    <t>0.1112414</t>
+    <t>6695</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>7954</t>
+  </si>
+  <si>
+    <t>9797</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H251"/>
+  <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1185,10 +1317,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>14</v>
@@ -1208,13 +1340,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>14</v>
@@ -1234,13 +1366,13 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>23</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>14</v>
@@ -1260,13 +1392,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>14</v>
@@ -1286,13 +1418,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>14</v>
@@ -1312,13 +1444,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>31</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>14</v>
@@ -1338,13 +1470,13 @@
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>33</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>14</v>
@@ -1364,13 +1496,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>14</v>
@@ -1390,13 +1522,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>14</v>
@@ -1407,13 +1539,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>11</v>
@@ -1425,21 +1557,21 @@
         <v>14</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>15</v>
@@ -1451,24 +1583,24 @@
         <v>14</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="D14" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>14</v>
@@ -1477,24 +1609,24 @@
         <v>14</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="D15" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>14</v>
@@ -1503,24 +1635,24 @@
         <v>14</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="D16" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>14</v>
@@ -1529,24 +1661,24 @@
         <v>14</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="D17" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>14</v>
@@ -1555,24 +1687,24 @@
         <v>14</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="D18" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>14</v>
@@ -1581,24 +1713,24 @@
         <v>14</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="D19" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>14</v>
@@ -1607,24 +1739,24 @@
         <v>14</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="D20" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>14</v>
@@ -1633,24 +1765,24 @@
         <v>14</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="D21" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>14</v>
@@ -1659,30 +1791,30 @@
         <v>14</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>14</v>
@@ -1693,22 +1825,22 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>14</v>
@@ -1719,22 +1851,22 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="D24" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>14</v>
@@ -1745,22 +1877,22 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="D25" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>14</v>
@@ -1771,19 +1903,19 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="D26" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>72</v>
@@ -1797,16 +1929,16 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="D27" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>69</v>
@@ -1823,16 +1955,16 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="D28" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>74</v>
@@ -1849,19 +1981,19 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>76</v>
@@ -1875,16 +2007,16 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="D30" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>77</v>
@@ -1901,22 +2033,22 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="D31" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>14</v>
@@ -1927,13 +2059,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>11</v>
@@ -1945,21 +2077,21 @@
         <v>14</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>15</v>
@@ -1971,24 +2103,24 @@
         <v>14</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>14</v>
@@ -1997,24 +2129,24 @@
         <v>14</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>14</v>
@@ -2023,24 +2155,24 @@
         <v>14</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>14</v>
@@ -2049,24 +2181,24 @@
         <v>14</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>14</v>
@@ -2075,24 +2207,24 @@
         <v>14</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>14</v>
@@ -2101,24 +2233,24 @@
         <v>14</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>14</v>
@@ -2127,24 +2259,24 @@
         <v>14</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>14</v>
@@ -2153,24 +2285,24 @@
         <v>14</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>14</v>
@@ -2179,30 +2311,30 @@
         <v>14</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>14</v>
@@ -2213,22 +2345,22 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>14</v>
@@ -2239,22 +2371,22 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>14</v>
@@ -2265,22 +2397,22 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>14</v>
@@ -2291,22 +2423,22 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>14</v>
@@ -2317,22 +2449,22 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>14</v>
@@ -2343,22 +2475,22 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>14</v>
@@ -2369,22 +2501,22 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>14</v>
@@ -2395,22 +2527,22 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>14</v>
@@ -2421,22 +2553,22 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>14</v>
@@ -2447,13 +2579,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>11</v>
@@ -2465,21 +2597,21 @@
         <v>14</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>15</v>
@@ -2491,24 +2623,24 @@
         <v>14</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>14</v>
@@ -2517,24 +2649,24 @@
         <v>14</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>14</v>
@@ -2543,24 +2675,24 @@
         <v>14</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>14</v>
@@ -2569,24 +2701,24 @@
         <v>14</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>14</v>
@@ -2595,24 +2727,24 @@
         <v>14</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>14</v>
@@ -2621,24 +2753,24 @@
         <v>14</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>14</v>
@@ -2647,24 +2779,24 @@
         <v>14</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>14</v>
@@ -2673,24 +2805,24 @@
         <v>14</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>14</v>
@@ -2699,30 +2831,30 @@
         <v>14</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>14</v>
@@ -2733,22 +2865,22 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>14</v>
@@ -2759,22 +2891,22 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>14</v>
@@ -2785,22 +2917,22 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>14</v>
@@ -2811,22 +2943,22 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>14</v>
@@ -2837,22 +2969,22 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>14</v>
@@ -2863,22 +2995,22 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>14</v>
@@ -2889,22 +3021,22 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>14</v>
@@ -2915,22 +3047,22 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>14</v>
@@ -2941,22 +3073,22 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>14</v>
@@ -2967,13 +3099,13 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>11</v>
@@ -2985,21 +3117,21 @@
         <v>14</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>15</v>
@@ -3011,24 +3143,24 @@
         <v>14</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>14</v>
@@ -3037,24 +3169,24 @@
         <v>14</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>14</v>
@@ -3063,24 +3195,24 @@
         <v>14</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>14</v>
@@ -3089,24 +3221,24 @@
         <v>14</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>14</v>
@@ -3115,24 +3247,24 @@
         <v>14</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>14</v>
@@ -3141,24 +3273,24 @@
         <v>14</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>14</v>
@@ -3167,24 +3299,24 @@
         <v>14</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>14</v>
@@ -3193,24 +3325,24 @@
         <v>14</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>14</v>
@@ -3219,30 +3351,30 @@
         <v>14</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>14</v>
@@ -3253,22 +3385,22 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>14</v>
@@ -3279,22 +3411,22 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>14</v>
@@ -3305,22 +3437,22 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>14</v>
@@ -3331,22 +3463,22 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>14</v>
@@ -3357,22 +3489,22 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>14</v>
@@ -3383,22 +3515,22 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>14</v>
@@ -3409,22 +3541,22 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>14</v>
@@ -3435,22 +3567,22 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>14</v>
@@ -3461,22 +3593,22 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>14</v>
@@ -3487,13 +3619,13 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>11</v>
@@ -3505,21 +3637,21 @@
         <v>14</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>15</v>
@@ -3531,24 +3663,24 @@
         <v>14</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>14</v>
@@ -3557,24 +3689,24 @@
         <v>14</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E95" s="0" t="s">
         <v>14</v>
@@ -3583,24 +3715,24 @@
         <v>14</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>14</v>
@@ -3609,24 +3741,24 @@
         <v>14</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>14</v>
@@ -3635,24 +3767,24 @@
         <v>14</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>14</v>
@@ -3661,24 +3793,24 @@
         <v>14</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>14</v>
@@ -3687,24 +3819,24 @@
         <v>14</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E100" s="0" t="s">
         <v>14</v>
@@ -3713,24 +3845,24 @@
         <v>14</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>14</v>
@@ -3739,30 +3871,30 @@
         <v>14</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>14</v>
@@ -3773,22 +3905,22 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>14</v>
@@ -3799,22 +3931,22 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>14</v>
@@ -3825,22 +3957,22 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>14</v>
@@ -3851,22 +3983,22 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>14</v>
@@ -3877,22 +4009,22 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>14</v>
@@ -3903,22 +4035,22 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>14</v>
@@ -3929,22 +4061,22 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>14</v>
@@ -3955,22 +4087,22 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>14</v>
@@ -3981,22 +4113,22 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>14</v>
@@ -4007,13 +4139,13 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>11</v>
@@ -4025,21 +4157,21 @@
         <v>14</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>15</v>
@@ -4051,24 +4183,24 @@
         <v>14</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E114" s="0" t="s">
         <v>14</v>
@@ -4077,24 +4209,24 @@
         <v>14</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E115" s="0" t="s">
         <v>14</v>
@@ -4103,24 +4235,24 @@
         <v>14</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E116" s="0" t="s">
         <v>14</v>
@@ -4129,24 +4261,24 @@
         <v>14</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E117" s="0" t="s">
         <v>14</v>
@@ -4155,24 +4287,24 @@
         <v>14</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E118" s="0" t="s">
         <v>14</v>
@@ -4181,24 +4313,24 @@
         <v>14</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E119" s="0" t="s">
         <v>14</v>
@@ -4207,24 +4339,24 @@
         <v>14</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E120" s="0" t="s">
         <v>14</v>
@@ -4233,24 +4365,24 @@
         <v>14</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E121" s="0" t="s">
         <v>14</v>
@@ -4259,21 +4391,21 @@
         <v>14</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>11</v>
@@ -4285,21 +4417,21 @@
         <v>14</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>15</v>
@@ -4311,24 +4443,24 @@
         <v>14</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E124" s="0" t="s">
         <v>14</v>
@@ -4337,24 +4469,24 @@
         <v>14</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E125" s="0" t="s">
         <v>14</v>
@@ -4363,24 +4495,24 @@
         <v>14</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>14</v>
@@ -4389,24 +4521,24 @@
         <v>14</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E127" s="0" t="s">
         <v>14</v>
@@ -4415,24 +4547,24 @@
         <v>14</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E128" s="0" t="s">
         <v>14</v>
@@ -4441,24 +4573,24 @@
         <v>14</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>14</v>
@@ -4467,24 +4599,24 @@
         <v>14</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E130" s="0" t="s">
         <v>14</v>
@@ -4493,24 +4625,24 @@
         <v>14</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E131" s="0" t="s">
         <v>14</v>
@@ -4519,21 +4651,21 @@
         <v>14</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>11</v>
@@ -4545,21 +4677,21 @@
         <v>14</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>8</v>
+        <v>298</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>8</v>
+        <v>298</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>15</v>
@@ -4571,24 +4703,24 @@
         <v>14</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>8</v>
+        <v>295</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>39</v>
+        <v>299</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E134" s="0" t="s">
         <v>14</v>
@@ -4597,24 +4729,24 @@
         <v>14</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>62</v>
+        <v>301</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E135" s="0" t="s">
         <v>14</v>
@@ -4623,24 +4755,24 @@
         <v>14</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E136" s="0" t="s">
         <v>14</v>
@@ -4649,24 +4781,24 @@
         <v>14</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>8</v>
+        <v>302</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>103</v>
+        <v>303</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E137" s="0" t="s">
         <v>14</v>
@@ -4675,24 +4807,24 @@
         <v>14</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>8</v>
+        <v>304</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E138" s="0" t="s">
         <v>14</v>
@@ -4701,24 +4833,24 @@
         <v>14</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>8</v>
+        <v>295</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>141</v>
+        <v>305</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E139" s="0" t="s">
         <v>14</v>
@@ -4727,7 +4859,7 @@
         <v>14</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="H139" s="0" t="s">
         <v>152</v>
@@ -4735,16 +4867,16 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E140" s="0" t="s">
         <v>14</v>
@@ -4753,24 +4885,24 @@
         <v>14</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>8</v>
+        <v>304</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>175</v>
+        <v>306</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E141" s="0" t="s">
         <v>14</v>
@@ -4779,21 +4911,21 @@
         <v>14</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>8</v>
+        <v>302</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>11</v>
@@ -4813,13 +4945,13 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>15</v>
@@ -4828,7 +4960,7 @@
         <v>8</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G143" s="0" t="s">
         <v>14</v>
@@ -4839,22 +4971,22 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E144" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G144" s="0" t="s">
         <v>14</v>
@@ -4865,22 +4997,22 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E145" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G145" s="0" t="s">
         <v>14</v>
@@ -4891,22 +5023,22 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E146" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G146" s="0" t="s">
         <v>14</v>
@@ -4917,22 +5049,22 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E147" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G147" s="0" t="s">
         <v>14</v>
@@ -4943,22 +5075,22 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E148" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G148" s="0" t="s">
         <v>14</v>
@@ -4969,22 +5101,22 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E149" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G149" s="0" t="s">
         <v>14</v>
@@ -4995,22 +5127,22 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E150" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G150" s="0" t="s">
         <v>14</v>
@@ -5021,22 +5153,22 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E151" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G151" s="0" t="s">
         <v>14</v>
@@ -5047,13 +5179,13 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>11</v>
@@ -5073,13 +5205,13 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>15</v>
@@ -5088,7 +5220,7 @@
         <v>8</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G153" s="0" t="s">
         <v>14</v>
@@ -5099,22 +5231,22 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E154" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G154" s="0" t="s">
         <v>14</v>
@@ -5125,22 +5257,22 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E155" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G155" s="0" t="s">
         <v>14</v>
@@ -5151,22 +5283,22 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E156" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G156" s="0" t="s">
         <v>14</v>
@@ -5177,22 +5309,22 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E157" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G157" s="0" t="s">
         <v>14</v>
@@ -5203,22 +5335,22 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E158" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G158" s="0" t="s">
         <v>14</v>
@@ -5229,22 +5361,22 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E159" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G159" s="0" t="s">
         <v>14</v>
@@ -5255,22 +5387,22 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E160" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G160" s="0" t="s">
         <v>14</v>
@@ -5281,22 +5413,22 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E161" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G161" s="0" t="s">
         <v>14</v>
@@ -5307,13 +5439,13 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>11</v>
@@ -5333,13 +5465,13 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>15</v>
@@ -5348,7 +5480,7 @@
         <v>8</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G163" s="0" t="s">
         <v>14</v>
@@ -5359,22 +5491,22 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E164" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G164" s="0" t="s">
         <v>14</v>
@@ -5385,22 +5517,22 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E165" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G165" s="0" t="s">
         <v>14</v>
@@ -5411,22 +5543,22 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E166" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G166" s="0" t="s">
         <v>14</v>
@@ -5437,22 +5569,22 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E167" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G167" s="0" t="s">
         <v>14</v>
@@ -5463,22 +5595,22 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E168" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G168" s="0" t="s">
         <v>14</v>
@@ -5489,22 +5621,22 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E169" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G169" s="0" t="s">
         <v>14</v>
@@ -5515,22 +5647,22 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E170" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G170" s="0" t="s">
         <v>14</v>
@@ -5541,22 +5673,22 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E171" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G171" s="0" t="s">
         <v>14</v>
@@ -5567,13 +5699,13 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>11</v>
@@ -5593,13 +5725,13 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>15</v>
@@ -5608,7 +5740,7 @@
         <v>8</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G173" s="0" t="s">
         <v>14</v>
@@ -5619,22 +5751,22 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E174" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G174" s="0" t="s">
         <v>14</v>
@@ -5645,22 +5777,22 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E175" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G175" s="0" t="s">
         <v>14</v>
@@ -5671,22 +5803,22 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E176" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G176" s="0" t="s">
         <v>14</v>
@@ -5697,22 +5829,22 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E177" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G177" s="0" t="s">
         <v>14</v>
@@ -5723,22 +5855,22 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E178" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G178" s="0" t="s">
         <v>14</v>
@@ -5749,22 +5881,22 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E179" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G179" s="0" t="s">
         <v>14</v>
@@ -5775,22 +5907,22 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E180" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G180" s="0" t="s">
         <v>14</v>
@@ -5801,22 +5933,22 @@
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E181" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G181" s="0" t="s">
         <v>14</v>
@@ -5827,13 +5959,13 @@
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>11</v>
@@ -5853,13 +5985,13 @@
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>15</v>
@@ -5868,7 +6000,7 @@
         <v>8</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G183" s="0" t="s">
         <v>14</v>
@@ -5879,22 +6011,22 @@
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E184" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G184" s="0" t="s">
         <v>14</v>
@@ -5905,22 +6037,22 @@
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E185" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G185" s="0" t="s">
         <v>14</v>
@@ -5931,22 +6063,22 @@
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E186" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G186" s="0" t="s">
         <v>14</v>
@@ -5957,22 +6089,22 @@
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E187" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G187" s="0" t="s">
         <v>14</v>
@@ -5983,22 +6115,22 @@
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E188" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G188" s="0" t="s">
         <v>14</v>
@@ -6009,22 +6141,22 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E189" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G189" s="0" t="s">
         <v>14</v>
@@ -6035,22 +6167,22 @@
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E190" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G190" s="0" t="s">
         <v>14</v>
@@ -6061,22 +6193,22 @@
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E191" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G191" s="0" t="s">
         <v>14</v>
@@ -6087,13 +6219,13 @@
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>11</v>
@@ -6113,13 +6245,13 @@
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>15</v>
@@ -6128,7 +6260,7 @@
         <v>8</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G193" s="0" t="s">
         <v>14</v>
@@ -6139,22 +6271,22 @@
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E194" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G194" s="0" t="s">
         <v>14</v>
@@ -6165,22 +6297,22 @@
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E195" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G195" s="0" t="s">
         <v>14</v>
@@ -6191,22 +6323,22 @@
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E196" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G196" s="0" t="s">
         <v>14</v>
@@ -6217,22 +6349,22 @@
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E197" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G197" s="0" t="s">
         <v>14</v>
@@ -6243,22 +6375,22 @@
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E198" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G198" s="0" t="s">
         <v>14</v>
@@ -6269,22 +6401,22 @@
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E199" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G199" s="0" t="s">
         <v>14</v>
@@ -6295,22 +6427,22 @@
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E200" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G200" s="0" t="s">
         <v>14</v>
@@ -6321,22 +6453,22 @@
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E201" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G201" s="0" t="s">
         <v>14</v>
@@ -6347,13 +6479,13 @@
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>11</v>
@@ -6373,13 +6505,13 @@
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>15</v>
@@ -6388,7 +6520,7 @@
         <v>8</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G203" s="0" t="s">
         <v>14</v>
@@ -6399,22 +6531,22 @@
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E204" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G204" s="0" t="s">
         <v>14</v>
@@ -6425,22 +6557,22 @@
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E205" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G205" s="0" t="s">
         <v>14</v>
@@ -6451,22 +6583,22 @@
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E206" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G206" s="0" t="s">
         <v>14</v>
@@ -6477,22 +6609,22 @@
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E207" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G207" s="0" t="s">
         <v>14</v>
@@ -6503,22 +6635,22 @@
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E208" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G208" s="0" t="s">
         <v>14</v>
@@ -6529,22 +6661,22 @@
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E209" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G209" s="0" t="s">
         <v>14</v>
@@ -6555,22 +6687,22 @@
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E210" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G210" s="0" t="s">
         <v>14</v>
@@ -6581,22 +6713,22 @@
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E211" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G211" s="0" t="s">
         <v>14</v>
@@ -6607,16 +6739,16 @@
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E212" s="0" t="s">
         <v>14</v>
@@ -6625,24 +6757,24 @@
         <v>14</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E213" s="0" t="s">
         <v>14</v>
@@ -6651,24 +6783,24 @@
         <v>14</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E214" s="0" t="s">
         <v>14</v>
@@ -6677,24 +6809,24 @@
         <v>14</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E215" s="0" t="s">
         <v>14</v>
@@ -6703,24 +6835,24 @@
         <v>14</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E216" s="0" t="s">
         <v>14</v>
@@ -6729,24 +6861,24 @@
         <v>14</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E217" s="0" t="s">
         <v>14</v>
@@ -6755,24 +6887,24 @@
         <v>14</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E218" s="0" t="s">
         <v>14</v>
@@ -6781,24 +6913,24 @@
         <v>14</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E219" s="0" t="s">
         <v>14</v>
@@ -6807,24 +6939,24 @@
         <v>14</v>
       </c>
       <c r="G219" s="0" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E220" s="0" t="s">
         <v>14</v>
@@ -6833,24 +6965,24 @@
         <v>14</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E221" s="0" t="s">
         <v>14</v>
@@ -6859,24 +6991,24 @@
         <v>14</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>315</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E222" s="0" t="s">
         <v>8</v>
@@ -6893,16 +7025,16 @@
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E223" s="0" t="s">
         <v>8</v>
@@ -6919,16 +7051,16 @@
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E224" s="0" t="s">
         <v>8</v>
@@ -6945,16 +7077,16 @@
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E225" s="0" t="s">
         <v>8</v>
@@ -6971,16 +7103,16 @@
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E226" s="0" t="s">
         <v>8</v>
@@ -6997,16 +7129,16 @@
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E227" s="0" t="s">
         <v>8</v>
@@ -7023,16 +7155,16 @@
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E228" s="0" t="s">
         <v>8</v>
@@ -7049,16 +7181,16 @@
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E229" s="0" t="s">
         <v>8</v>
@@ -7075,22 +7207,22 @@
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E230" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G230" s="0" t="s">
         <v>14</v>
@@ -7101,22 +7233,22 @@
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E231" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G231" s="0" t="s">
         <v>14</v>
@@ -7127,16 +7259,16 @@
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E232" s="0" t="s">
         <v>14</v>
@@ -7145,24 +7277,24 @@
         <v>14</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E233" s="0" t="s">
         <v>14</v>
@@ -7171,24 +7303,24 @@
         <v>14</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E234" s="0" t="s">
         <v>14</v>
@@ -7197,24 +7329,24 @@
         <v>14</v>
       </c>
       <c r="G234" s="0" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E235" s="0" t="s">
         <v>14</v>
@@ -7223,24 +7355,24 @@
         <v>14</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E236" s="0" t="s">
         <v>14</v>
@@ -7249,24 +7381,24 @@
         <v>14</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E237" s="0" t="s">
         <v>14</v>
@@ -7275,24 +7407,24 @@
         <v>14</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E238" s="0" t="s">
         <v>14</v>
@@ -7301,24 +7433,24 @@
         <v>14</v>
       </c>
       <c r="G238" s="0" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E239" s="0" t="s">
         <v>14</v>
@@ -7327,24 +7459,24 @@
         <v>14</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E240" s="0" t="s">
         <v>14</v>
@@ -7353,24 +7485,24 @@
         <v>14</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E241" s="0" t="s">
         <v>14</v>
@@ -7379,24 +7511,24 @@
         <v>14</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>69</v>
+        <v>361</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E242" s="0" t="s">
         <v>14</v>
@@ -7405,24 +7537,24 @@
         <v>14</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>69</v>
+        <v>361</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E243" s="0" t="s">
         <v>14</v>
@@ -7431,24 +7563,24 @@
         <v>14</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>69</v>
+        <v>361</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E244" s="0" t="s">
         <v>14</v>
@@ -7457,24 +7589,24 @@
         <v>14</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>69</v>
+        <v>361</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E245" s="0" t="s">
         <v>14</v>
@@ -7483,24 +7615,24 @@
         <v>14</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>69</v>
+        <v>361</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E246" s="0" t="s">
         <v>14</v>
@@ -7509,24 +7641,24 @@
         <v>14</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>69</v>
+        <v>361</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E247" s="0" t="s">
         <v>14</v>
@@ -7535,24 +7667,24 @@
         <v>14</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>69</v>
+        <v>361</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E248" s="0" t="s">
         <v>14</v>
@@ -7561,24 +7693,24 @@
         <v>14</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>69</v>
+        <v>361</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E249" s="0" t="s">
         <v>14</v>
@@ -7587,24 +7719,24 @@
         <v>14</v>
       </c>
       <c r="G249" s="0" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>69</v>
+        <v>361</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E250" s="0" t="s">
         <v>14</v>
@@ -7613,36 +7745,296 @@
         <v>14</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D251" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F251" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G251" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="H251" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="F252" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="G252" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H252" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D253" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E253" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F253" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="G253" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H253" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D254" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E254" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B251" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="C251" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="D251" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F251" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G251" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="H251" s="0" t="s">
-        <v>351</v>
+      <c r="F254" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="G254" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H254" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D255" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E255" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F255" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="G255" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H255" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D256" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E256" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F256" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="G256" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H256" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D257" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E257" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F257" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="G257" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H257" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D258" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E258" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="F258" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="G258" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H258" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D259" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E259" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="F259" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="G259" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H259" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D260" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E260" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="F260" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="G260" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H260" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D261" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E261" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="F261" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="G261" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H261" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/docs/诀要成长报表.xlsx
+++ b/docs/诀要成长报表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
   <si>
     <t>诀要类型</t>
   </si>
@@ -62,7 +62,10 @@
     <t>绿</t>
   </si>
   <si>
-    <t>1364</t>
+    <t>201</t>
+  </si>
+  <si>
+    <t>662</t>
   </si>
   <si>
     <t>蓝</t>
@@ -71,58 +74,61 @@
     <t>200</t>
   </si>
   <si>
-    <t>3317</t>
+    <t>947</t>
   </si>
   <si>
     <t>紫</t>
   </si>
   <si>
-    <t>6600</t>
+    <t>199</t>
+  </si>
+  <si>
+    <t>1249</t>
   </si>
   <si>
     <t>金</t>
   </si>
   <si>
+    <t>1619</t>
+  </si>
+  <si>
+    <t>橙</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>1888</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>2232</t>
+  </si>
+  <si>
+    <t>闪金</t>
+  </si>
+  <si>
+    <t>2638</t>
+  </si>
+  <si>
+    <t>闪橙</t>
+  </si>
+  <si>
     <t>203</t>
   </si>
   <si>
-    <t>11551</t>
-  </si>
-  <si>
-    <t>橙</t>
-  </si>
-  <si>
-    <t>18282</t>
-  </si>
-  <si>
-    <t>红</t>
+    <t>3038</t>
+  </si>
+  <si>
+    <t>闪红</t>
   </si>
   <si>
     <t>204</t>
   </si>
   <si>
-    <t>26650</t>
-  </si>
-  <si>
-    <t>闪金</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>36039</t>
-  </si>
-  <si>
-    <t>闪橙</t>
-  </si>
-  <si>
-    <t>48800</t>
-  </si>
-  <si>
-    <t>闪红</t>
-  </si>
-  <si>
-    <t>64397</t>
+    <t>3437</t>
   </si>
   <si>
     <t>2</t>
@@ -134,64 +140,64 @@
     <t>增减益气血上限比例</t>
   </si>
   <si>
-    <t>0.1185053</t>
-  </si>
-  <si>
-    <t>0.2370105</t>
-  </si>
-  <si>
-    <t>0.1409051</t>
-  </si>
-  <si>
-    <t>0.4646201</t>
-  </si>
-  <si>
-    <t>0.162579</t>
-  </si>
-  <si>
-    <t>0.7701681</t>
-  </si>
-  <si>
-    <t>0.1312153</t>
-  </si>
-  <si>
-    <t>0.8237739</t>
-  </si>
-  <si>
-    <t>0.1206489</t>
-  </si>
-  <si>
-    <t>0.9529634</t>
-  </si>
-  <si>
-    <t>0.1588963</t>
-  </si>
-  <si>
-    <t>1.52315</t>
-  </si>
-  <si>
-    <t>0.1255639</t>
-  </si>
-  <si>
-    <t>1.422691</t>
-  </si>
-  <si>
-    <t>0.1445911</t>
-  </si>
-  <si>
-    <t>1.897864</t>
-  </si>
-  <si>
-    <t>0.1610495</t>
-  </si>
-  <si>
-    <t>2.410366</t>
-  </si>
-  <si>
-    <t>0.106032</t>
-  </si>
-  <si>
-    <t>1.786526</t>
+    <t>0.1302184</t>
+  </si>
+  <si>
+    <t>0.2604369</t>
+  </si>
+  <si>
+    <t>0.1373103</t>
+  </si>
+  <si>
+    <t>0.4527665</t>
+  </si>
+  <si>
+    <t>0.1409444</t>
+  </si>
+  <si>
+    <t>0.6676808</t>
+  </si>
+  <si>
+    <t>0.1407411</t>
+  </si>
+  <si>
+    <t>0.8835773</t>
+  </si>
+  <si>
+    <t>0.1363436</t>
+  </si>
+  <si>
+    <t>1.07693</t>
+  </si>
+  <si>
+    <t>0.1238335</t>
+  </si>
+  <si>
+    <t>1.187045</t>
+  </si>
+  <si>
+    <t>0.1250536</t>
+  </si>
+  <si>
+    <t>1.416908</t>
+  </si>
+  <si>
+    <t>0.1432101</t>
+  </si>
+  <si>
+    <t>1.879737</t>
+  </si>
+  <si>
+    <t>0.1070022</t>
+  </si>
+  <si>
+    <t>1.60146</t>
+  </si>
+  <si>
+    <t>0.1080491</t>
+  </si>
+  <si>
+    <t>1.820512</t>
   </si>
   <si>
     <t>3</t>
@@ -203,1003 +209,1009 @@
     <t>增减益外功点数</t>
   </si>
   <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>1260</t>
+  </si>
+  <si>
+    <t>1682</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>2249</t>
+  </si>
+  <si>
     <t>81</t>
   </si>
   <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>86</t>
+    <t>2770</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>4106</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>4947</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>6281</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>开山</t>
+  </si>
+  <si>
+    <t>增减益外功比例</t>
+  </si>
+  <si>
+    <t>0.1066386</t>
+  </si>
+  <si>
+    <t>0.2132773</t>
+  </si>
+  <si>
+    <t>0.107446</t>
+  </si>
+  <si>
+    <t>0.456539</t>
+  </si>
+  <si>
+    <t>0.09214462</t>
+  </si>
+  <si>
+    <t>0.6885975</t>
+  </si>
+  <si>
+    <t>0.102738</t>
+  </si>
+  <si>
+    <t>1.187246</t>
+  </si>
+  <si>
+    <t>0.1072552</t>
+  </si>
+  <si>
+    <t>1.761757</t>
+  </si>
+  <si>
+    <t>0.09477002</t>
+  </si>
+  <si>
+    <t>2.087866</t>
+  </si>
+  <si>
+    <t>0.09290492</t>
+  </si>
+  <si>
+    <t>2.632154</t>
+  </si>
+  <si>
+    <t>0.09946163</t>
+  </si>
+  <si>
+    <t>3.510673</t>
+  </si>
+  <si>
+    <t>0.09894653</t>
+  </si>
+  <si>
+    <t>4.24479</t>
+  </si>
+  <si>
+    <t>0.09616723</t>
+  </si>
+  <si>
+    <t>4.915946</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>坚毅</t>
+  </si>
+  <si>
+    <t>增减益外防点数</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>664</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>1386</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>1558</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2078</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>刚强</t>
+  </si>
+  <si>
+    <t>增减益外防比例</t>
+  </si>
+  <si>
+    <t>0.07136486</t>
+  </si>
+  <si>
+    <t>0.1427297</t>
+  </si>
+  <si>
+    <t>0.07264514</t>
+  </si>
+  <si>
+    <t>0.2515185</t>
+  </si>
+  <si>
+    <t>0.07593779</t>
+  </si>
+  <si>
+    <t>0.392687</t>
+  </si>
+  <si>
+    <t>0.07535896</t>
+  </si>
+  <si>
+    <t>0.5322502</t>
+  </si>
+  <si>
+    <t>0.06955336</t>
+  </si>
+  <si>
+    <t>0.6331639</t>
+  </si>
+  <si>
+    <t>0.05145734</t>
+  </si>
+  <si>
+    <t>0.5799561</t>
+  </si>
+  <si>
+    <t>0.07400565</t>
+  </si>
+  <si>
+    <t>1.002742</t>
+  </si>
+  <si>
+    <t>0.07208948</t>
+  </si>
+  <si>
+    <t>1.148279</t>
+  </si>
+  <si>
+    <t>0.07873458</t>
+  </si>
+  <si>
+    <t>1.448609</t>
+  </si>
+  <si>
+    <t>0.06263287</t>
+  </si>
+  <si>
+    <t>1.312323</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>暗流</t>
+  </si>
+  <si>
+    <t>增减益内功点数</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>385</t>
   </si>
   <si>
     <t>707</t>
   </si>
   <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>1529</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>2223</t>
+  </si>
+  <si>
+    <t>3283</t>
+  </si>
+  <si>
+    <t>4063</t>
+  </si>
+  <si>
+    <t>5053</t>
+  </si>
+  <si>
+    <t>6409</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>怒涛</t>
+  </si>
+  <si>
+    <t>增减益内功比例</t>
+  </si>
+  <si>
+    <t>0.09232197</t>
+  </si>
+  <si>
+    <t>0.1846439</t>
+  </si>
+  <si>
+    <t>0.09553165</t>
+  </si>
+  <si>
+    <t>0.4059149</t>
+  </si>
+  <si>
+    <t>0.1032993</t>
+  </si>
+  <si>
+    <t>0.7719564</t>
+  </si>
+  <si>
+    <t>0.1069148</t>
+  </si>
+  <si>
+    <t>1.235514</t>
+  </si>
+  <si>
+    <t>0.1081306</t>
+  </si>
+  <si>
+    <t>1.776138</t>
+  </si>
+  <si>
+    <t>0.1086788</t>
+  </si>
+  <si>
+    <t>2.394288</t>
+  </si>
+  <si>
+    <t>0.09802407</t>
+  </si>
+  <si>
+    <t>2.777189</t>
+  </si>
+  <si>
+    <t>0.1075665</t>
+  </si>
+  <si>
+    <t>3.796747</t>
+  </si>
+  <si>
+    <t>0.104818</t>
+  </si>
+  <si>
+    <t>4.496676</t>
+  </si>
+  <si>
+    <t>0.1062499</t>
+  </si>
+  <si>
+    <t>5.431362</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>磐石</t>
+  </si>
+  <si>
+    <t>增减益内防点数</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>836</t>
+  </si>
+  <si>
+    <t>1292</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>1385</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>1939</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>1795</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>涅槃</t>
+  </si>
+  <si>
+    <t>增减益内防比例</t>
+  </si>
+  <si>
+    <t>0.06826841</t>
+  </si>
+  <si>
+    <t>0.1365368</t>
+  </si>
+  <si>
+    <t>0.06600162</t>
+  </si>
+  <si>
+    <t>0.2285167</t>
+  </si>
+  <si>
+    <t>0.06975135</t>
+  </si>
+  <si>
+    <t>0.3606959</t>
+  </si>
+  <si>
+    <t>0.07918132</t>
+  </si>
+  <si>
+    <t>0.559247</t>
+  </si>
+  <si>
+    <t>0.06745139</t>
+  </si>
+  <si>
+    <t>0.614029</t>
+  </si>
+  <si>
+    <t>0.07299671</t>
+  </si>
+  <si>
+    <t>0.822718</t>
+  </si>
+  <si>
+    <t>0.05780039</t>
+  </si>
+  <si>
+    <t>0.783168</t>
+  </si>
+  <si>
+    <t>0.05267961</t>
+  </si>
+  <si>
+    <t>0.8391085</t>
+  </si>
+  <si>
+    <t>0.07786443</t>
+  </si>
+  <si>
+    <t>1.432599</t>
+  </si>
+  <si>
+    <t>0.07349432</t>
+  </si>
+  <si>
+    <t>1.539899</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>追命</t>
+  </si>
+  <si>
+    <t>增减益固定伤害值</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>1494</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>2415</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>3597</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>4273</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>6289</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>7941</t>
+  </si>
+  <si>
+    <t>8279</t>
+  </si>
+  <si>
+    <t>10070</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>骁勇</t>
+  </si>
+  <si>
+    <t>增减益伤害比例</t>
+  </si>
+  <si>
+    <t>0.06724806</t>
+  </si>
+  <si>
+    <t>0.1344961</t>
+  </si>
+  <si>
+    <t>0.05800077</t>
+  </si>
+  <si>
+    <t>0.1823281</t>
+  </si>
+  <si>
+    <t>0.07192864</t>
+  </si>
+  <si>
+    <t>0.3127723</t>
+  </si>
+  <si>
+    <t>0.05947781</t>
+  </si>
+  <si>
+    <t>0.3327661</t>
+  </si>
+  <si>
+    <t>0.06707948</t>
+  </si>
+  <si>
+    <t>0.4610437</t>
+  </si>
+  <si>
+    <t>0.06043718</t>
+  </si>
+  <si>
+    <t>0.4942183</t>
+  </si>
+  <si>
+    <t>0.05666444</t>
+  </si>
+  <si>
+    <t>0.5385218</t>
+  </si>
+  <si>
+    <t>0.05862519</t>
+  </si>
+  <si>
+    <t>0.6360338</t>
+  </si>
+  <si>
+    <t>0.0545502</t>
+  </si>
+  <si>
+    <t>0.6661441</t>
+  </si>
+  <si>
+    <t>0.05209944</t>
+  </si>
+  <si>
+    <t>0.7079925</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>布阵</t>
+  </si>
+  <si>
+    <t>增减益减伤比例</t>
+  </si>
+  <si>
+    <t>0.05309167</t>
+  </si>
+  <si>
+    <t>0.1061833</t>
+  </si>
+  <si>
+    <t>0.07745249</t>
+  </si>
+  <si>
+    <t>0.2434755</t>
+  </si>
+  <si>
+    <t>0.06375387</t>
+  </si>
+  <si>
+    <t>0.2772254</t>
+  </si>
+  <si>
+    <t>0.06436034</t>
+  </si>
+  <si>
+    <t>0.3600828</t>
+  </si>
+  <si>
+    <t>0.07169846</t>
+  </si>
+  <si>
+    <t>0.4927903</t>
+  </si>
+  <si>
+    <t>0.06435334</t>
+  </si>
+  <si>
+    <t>0.5262422</t>
+  </si>
+  <si>
+    <t>0.05746698</t>
+  </si>
+  <si>
+    <t>0.5461489</t>
+  </si>
+  <si>
+    <t>0.07967182</t>
+  </si>
+  <si>
+    <t>0.864372</t>
+  </si>
+  <si>
+    <t>0.05423037</t>
+  </si>
+  <si>
+    <t>0.6622385</t>
+  </si>
+  <si>
+    <t>0.06582496</t>
+  </si>
+  <si>
+    <t>0.8945122</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>轻灵</t>
+  </si>
+  <si>
+    <t>增减益轻功点数</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>驭毒</t>
+  </si>
+  <si>
+    <t>中毒抵抗</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>站桩</t>
+  </si>
+  <si>
+    <t>缴械抵抗</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>清醒</t>
+  </si>
+  <si>
+    <t>眩晕抵抗</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>腾挪</t>
+  </si>
+  <si>
+    <t>定身抵抗</t>
+  </si>
+  <si>
+    <t>敏锐</t>
+  </si>
+  <si>
+    <t>迟缓抵抗</t>
+  </si>
+  <si>
+    <t>沉稳</t>
+  </si>
+  <si>
+    <t>混乱抵抗</t>
+  </si>
+  <si>
+    <t>冷静</t>
+  </si>
+  <si>
+    <t>惊慌抵抗</t>
+  </si>
+  <si>
+    <t>行云流水</t>
+  </si>
+  <si>
+    <t>减少武功招式CD时间</t>
+  </si>
+  <si>
+    <t>0.02746711</t>
+  </si>
+  <si>
+    <t>0.02723599</t>
+  </si>
+  <si>
+    <t>0.02925302</t>
+  </si>
+  <si>
+    <t>0.02976822</t>
+  </si>
+  <si>
+    <t>0.02971805</t>
+  </si>
+  <si>
+    <t>0.0594361</t>
+  </si>
+  <si>
+    <t>0.02732117</t>
+  </si>
+  <si>
+    <t>0.1366058</t>
+  </si>
+  <si>
+    <t>0.0289877</t>
+  </si>
+  <si>
+    <t>0.289877</t>
+  </si>
+  <si>
+    <t>0.02842126</t>
+  </si>
+  <si>
+    <t>0.4831614</t>
+  </si>
+  <si>
+    <t>0.02831402</t>
+  </si>
+  <si>
+    <t>0.7361645</t>
+  </si>
+  <si>
+    <t>0.02747732</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>不死金刚</t>
+  </si>
+  <si>
+    <t>抵御n次阵亡效果</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>一击必杀</t>
+  </si>
+  <si>
+    <t>n%概率秒杀敌方(对Boss无效)</t>
+  </si>
+  <si>
+    <t>0.02968856</t>
+  </si>
+  <si>
+    <t>0.02338419</t>
+  </si>
+  <si>
+    <t>0.02898975</t>
+  </si>
+  <si>
+    <t>0.02395913</t>
+  </si>
+  <si>
+    <t>0.02788777</t>
+  </si>
+  <si>
+    <t>0.02454804</t>
+  </si>
+  <si>
+    <t>0.02222891</t>
+  </si>
+  <si>
+    <t>0.02319328</t>
+  </si>
+  <si>
+    <t>0.04638655</t>
+  </si>
+  <si>
+    <t>0.02177273</t>
+  </si>
+  <si>
+    <t>0.0653182</t>
+  </si>
+  <si>
+    <t>0.028921</t>
+  </si>
+  <si>
+    <t>0.115684</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>盆满钵满</t>
+  </si>
+  <si>
+    <t>增加掉落概率n%</t>
+  </si>
+  <si>
+    <t>0.02351432</t>
+  </si>
+  <si>
+    <t>0.02282196</t>
+  </si>
+  <si>
+    <t>0.02006411</t>
+  </si>
+  <si>
+    <t>0.02419791</t>
+  </si>
+  <si>
+    <t>0.0227995</t>
+  </si>
+  <si>
+    <t>0.04559901</t>
+  </si>
+  <si>
+    <t>0.02394072</t>
+  </si>
+  <si>
+    <t>0.07182217</t>
+  </si>
+  <si>
+    <t>0.02328805</t>
+  </si>
+  <si>
+    <t>0.09315221</t>
+  </si>
+  <si>
+    <t>0.02344483</t>
+  </si>
+  <si>
+    <t>0.1172241</t>
+  </si>
+  <si>
+    <t>0.02238339</t>
+  </si>
+  <si>
+    <t>0.1343003</t>
+  </si>
+  <si>
+    <t>0.02235827</t>
+  </si>
+  <si>
+    <t>0.1565079</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>活血</t>
+  </si>
+  <si>
+    <t>增加气血恢复点数</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>2678</t>
+  </si>
+  <si>
+    <t>3737</t>
+  </si>
+  <si>
+    <t>5150</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>5915</t>
+  </si>
+  <si>
     <t>99</t>
   </si>
   <si>
-    <t>1299</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>1816</t>
-  </si>
-  <si>
-    <t>2589</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>3044</t>
-  </si>
-  <si>
-    <t>4106</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>5255</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>开山</t>
-  </si>
-  <si>
-    <t>增减益外功比例</t>
-  </si>
-  <si>
-    <t>0.09301438</t>
-  </si>
-  <si>
-    <t>0.1860288</t>
-  </si>
-  <si>
-    <t>0.09369206</t>
-  </si>
-  <si>
-    <t>0.3980985</t>
-  </si>
-  <si>
-    <t>0.09526253</t>
-  </si>
-  <si>
-    <t>0.7118977</t>
-  </si>
-  <si>
-    <t>0.1062834</t>
-  </si>
-  <si>
-    <t>1.228218</t>
-  </si>
-  <si>
-    <t>0.09337937</t>
-  </si>
-  <si>
-    <t>1.533835</t>
-  </si>
-  <si>
-    <t>0.09470216</t>
-  </si>
-  <si>
-    <t>2.086371</t>
-  </si>
-  <si>
-    <t>0.104377</t>
-  </si>
-  <si>
-    <t>2.957177</t>
-  </si>
-  <si>
-    <t>0.09245995</t>
-  </si>
-  <si>
-    <t>3.263536</t>
-  </si>
-  <si>
-    <t>0.100949</t>
-  </si>
-  <si>
-    <t>4.330696</t>
-  </si>
-  <si>
-    <t>0.09185575</t>
-  </si>
-  <si>
-    <t>4.695549</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>坚毅</t>
-  </si>
-  <si>
-    <t>增减益外防点数</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>611</t>
-  </si>
-  <si>
-    <t>805</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>836</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>1221</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>1327</t>
-  </si>
-  <si>
-    <t>2078</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>刚强</t>
-  </si>
-  <si>
-    <t>增减益外防比例</t>
-  </si>
-  <si>
-    <t>0.0522858</t>
-  </si>
-  <si>
-    <t>0.1045716</t>
-  </si>
-  <si>
-    <t>0.06574147</t>
-  </si>
-  <si>
-    <t>0.227616</t>
-  </si>
-  <si>
-    <t>0.07771763</t>
-  </si>
-  <si>
-    <t>0.4018909</t>
-  </si>
-  <si>
-    <t>0.07565171</t>
-  </si>
-  <si>
-    <t>0.5343179</t>
-  </si>
-  <si>
-    <t>0.07380337</t>
-  </si>
-  <si>
-    <t>0.6718529</t>
-  </si>
-  <si>
-    <t>0.06315789</t>
-  </si>
-  <si>
-    <t>0.7118284</t>
-  </si>
-  <si>
-    <t>0.06871087</t>
-  </si>
-  <si>
-    <t>0.9309999</t>
-  </si>
-  <si>
-    <t>0.05438827</t>
-  </si>
-  <si>
-    <t>0.8663249</t>
-  </si>
-  <si>
-    <t>0.07489769</t>
-  </si>
-  <si>
-    <t>1.378015</t>
-  </si>
-  <si>
-    <t>0.05420276</t>
-  </si>
-  <si>
-    <t>1.13569</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>暗流</t>
-  </si>
-  <si>
-    <t>增减益内功点数</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>1246</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>1663</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>2092</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>3180</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>3674</t>
-  </si>
-  <si>
-    <t>5053</t>
-  </si>
-  <si>
-    <t>6024</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>怒涛</t>
-  </si>
-  <si>
-    <t>增减益内功比例</t>
-  </si>
-  <si>
-    <t>0.0910346</t>
-  </si>
-  <si>
-    <t>0.1820692</t>
-  </si>
-  <si>
-    <t>0.09224153</t>
-  </si>
-  <si>
-    <t>0.3919352</t>
-  </si>
-  <si>
-    <t>0.1037552</t>
-  </si>
-  <si>
-    <t>0.7753633</t>
-  </si>
-  <si>
-    <t>0.1059374</t>
-  </si>
-  <si>
-    <t>1.22422</t>
-  </si>
-  <si>
-    <t>0.1094903</t>
-  </si>
-  <si>
-    <t>1.79847</t>
-  </si>
-  <si>
-    <t>0.1049273</t>
-  </si>
-  <si>
-    <t>2.311639</t>
-  </si>
-  <si>
-    <t>0.09162142</t>
-  </si>
-  <si>
-    <t>2.595791</t>
-  </si>
-  <si>
-    <t>0.09743629</t>
-  </si>
-  <si>
-    <t>3.439185</t>
-  </si>
-  <si>
-    <t>0.0961699</t>
-  </si>
-  <si>
-    <t>4.125672</t>
-  </si>
-  <si>
-    <t>0.1043768</t>
-  </si>
-  <si>
-    <t>5.335607</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>磐石</t>
-  </si>
-  <si>
-    <t>增减益内防点数</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>478</t>
-  </si>
-  <si>
-    <t>734</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>1315</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>1471</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>2162</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>涅槃</t>
-  </si>
-  <si>
-    <t>增减益内防比例</t>
-  </si>
-  <si>
-    <t>0.06078143</t>
-  </si>
-  <si>
-    <t>0.1215629</t>
-  </si>
-  <si>
-    <t>0.06613125</t>
-  </si>
-  <si>
-    <t>0.2289655</t>
-  </si>
-  <si>
-    <t>0.05264325</t>
-  </si>
-  <si>
-    <t>0.2722271</t>
-  </si>
-  <si>
-    <t>0.0629316</t>
-  </si>
-  <si>
-    <t>0.4444775</t>
-  </si>
-  <si>
-    <t>0.07004111</t>
-  </si>
-  <si>
-    <t>0.6376039</t>
-  </si>
-  <si>
-    <t>0.0708314</t>
-  </si>
-  <si>
-    <t>0.7983136</t>
-  </si>
-  <si>
-    <t>0.07043314</t>
-  </si>
-  <si>
-    <t>0.9543358</t>
-  </si>
-  <si>
-    <t>0.06261822</t>
-  </si>
-  <si>
-    <t>0.9974159</t>
-  </si>
-  <si>
-    <t>0.05617023</t>
-  </si>
-  <si>
-    <t>1.033455</t>
-  </si>
-  <si>
-    <t>0.05678904</t>
-  </si>
-  <si>
-    <t>1.189879</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>追命</t>
-  </si>
-  <si>
-    <t>增减益固定伤害值</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>892</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>1561</t>
-  </si>
-  <si>
-    <t>2657</t>
-  </si>
-  <si>
-    <t>3695</t>
-  </si>
-  <si>
-    <t>4362</t>
-  </si>
-  <si>
-    <t>5609</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>7306</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>9094</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>10019</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>骁勇</t>
-  </si>
-  <si>
-    <t>增减益伤害比例</t>
-  </si>
-  <si>
-    <t>0.07803486</t>
-  </si>
-  <si>
-    <t>0.1560697</t>
-  </si>
-  <si>
-    <t>0.07602911</t>
-  </si>
-  <si>
-    <t>0.2390011</t>
-  </si>
-  <si>
-    <t>0.06705734</t>
-  </si>
-  <si>
-    <t>0.2915901</t>
-  </si>
-  <si>
-    <t>0.06103955</t>
-  </si>
-  <si>
-    <t>0.3415037</t>
-  </si>
-  <si>
-    <t>0.05545553</t>
-  </si>
-  <si>
-    <t>0.3811511</t>
-  </si>
-  <si>
-    <t>0.05998693</t>
-  </si>
-  <si>
-    <t>0.4905364</t>
-  </si>
-  <si>
-    <t>0.06428295</t>
-  </si>
-  <si>
-    <t>0.6109258</t>
-  </si>
-  <si>
-    <t>0.06079044</t>
-  </si>
-  <si>
-    <t>0.6595249</t>
-  </si>
-  <si>
-    <t>0.05076902</t>
-  </si>
-  <si>
-    <t>0.6199698</t>
-  </si>
-  <si>
-    <t>0.05342859</t>
-  </si>
-  <si>
-    <t>0.7260547</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>布阵</t>
-  </si>
-  <si>
-    <t>增减益减伤比例</t>
-  </si>
-  <si>
-    <t>0.05848952</t>
-  </si>
-  <si>
-    <t>0.116979</t>
-  </si>
-  <si>
-    <t>0.06162066</t>
-  </si>
-  <si>
-    <t>0.1937075</t>
-  </si>
-  <si>
-    <t>0.05027333</t>
-  </si>
-  <si>
-    <t>0.218607</t>
-  </si>
-  <si>
-    <t>0.06112467</t>
-  </si>
-  <si>
-    <t>0.34198</t>
-  </si>
-  <si>
-    <t>0.06082261</t>
-  </si>
-  <si>
-    <t>0.4180396</t>
-  </si>
-  <si>
-    <t>0.0567699</t>
-  </si>
-  <si>
-    <t>0.4642295</t>
-  </si>
-  <si>
-    <t>0.07388958</t>
-  </si>
-  <si>
-    <t>0.7022243</t>
-  </si>
-  <si>
-    <t>0.05279085</t>
-  </si>
-  <si>
-    <t>0.5727361</t>
-  </si>
-  <si>
-    <t>0.07165047</t>
-  </si>
-  <si>
-    <t>0.8749654</t>
-  </si>
-  <si>
-    <t>0.07806825</t>
-  </si>
-  <si>
-    <t>1.060889</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>轻灵</t>
-  </si>
-  <si>
-    <t>增减益轻功点数</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>驭毒</t>
-  </si>
-  <si>
-    <t>中毒抵抗</t>
-  </si>
-  <si>
-    <t>站桩</t>
-  </si>
-  <si>
-    <t>缴械抵抗</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>清醒</t>
-  </si>
-  <si>
-    <t>眩晕抵抗</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>腾挪</t>
-  </si>
-  <si>
-    <t>定身抵抗</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>敏锐</t>
-  </si>
-  <si>
-    <t>迟缓抵抗</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>沉稳</t>
-  </si>
-  <si>
-    <t>混乱抵抗</t>
-  </si>
-  <si>
-    <t>冷静</t>
-  </si>
-  <si>
-    <t>惊慌抵抗</t>
-  </si>
-  <si>
-    <t>行云流水</t>
-  </si>
-  <si>
-    <t>减少武功招式CD时间</t>
-  </si>
-  <si>
-    <t>0.02944191</t>
-  </si>
-  <si>
-    <t>0.02821939</t>
-  </si>
-  <si>
-    <t>0.02774413</t>
-  </si>
-  <si>
-    <t>0.02869394</t>
-  </si>
-  <si>
-    <t>0.02748562</t>
-  </si>
-  <si>
-    <t>0.05497125</t>
-  </si>
-  <si>
-    <t>0.02942399</t>
-  </si>
-  <si>
-    <t>0.14712</t>
-  </si>
-  <si>
-    <t>0.02867411</t>
-  </si>
-  <si>
-    <t>0.2867411</t>
-  </si>
-  <si>
-    <t>0.02706136</t>
-  </si>
-  <si>
-    <t>0.4600432</t>
-  </si>
-  <si>
-    <t>0.0283587</t>
-  </si>
-  <si>
-    <t>0.7373261</t>
-  </si>
-  <si>
-    <t>0.02846166</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>不死金刚</t>
-  </si>
-  <si>
-    <t>抵御n次阵亡效果</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>一击必杀</t>
-  </si>
-  <si>
-    <t>n%概率秒杀敌方(对Boss无效)</t>
-  </si>
-  <si>
-    <t>0.02669576</t>
-  </si>
-  <si>
-    <t>0.02907613</t>
-  </si>
-  <si>
-    <t>0.02855166</t>
-  </si>
-  <si>
-    <t>0.02754382</t>
-  </si>
-  <si>
-    <t>0.02683454</t>
-  </si>
-  <si>
-    <t>0.02746781</t>
-  </si>
-  <si>
-    <t>0.02419628</t>
-  </si>
-  <si>
-    <t>0.02339366</t>
-  </si>
-  <si>
-    <t>0.04678731</t>
-  </si>
-  <si>
-    <t>0.02728597</t>
-  </si>
-  <si>
-    <t>0.0818579</t>
-  </si>
-  <si>
-    <t>0.02145913</t>
-  </si>
-  <si>
-    <t>0.08583651</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>盆满钵满</t>
-  </si>
-  <si>
-    <t>增加掉落概率n%</t>
-  </si>
-  <si>
-    <t>0.02336242</t>
-  </si>
-  <si>
-    <t>0.02288763</t>
-  </si>
-  <si>
-    <t>0.02485816</t>
-  </si>
-  <si>
-    <t>0.02135573</t>
-  </si>
-  <si>
-    <t>0.02167194</t>
-  </si>
-  <si>
-    <t>0.04334387</t>
-  </si>
-  <si>
-    <t>0.02038723</t>
-  </si>
-  <si>
-    <t>0.06116169</t>
-  </si>
-  <si>
-    <t>0.02368443</t>
-  </si>
-  <si>
-    <t>0.09473771</t>
-  </si>
-  <si>
-    <t>0.0232072</t>
-  </si>
-  <si>
-    <t>0.116036</t>
-  </si>
-  <si>
-    <t>0.02103826</t>
-  </si>
-  <si>
-    <t>0.1262295</t>
-  </si>
-  <si>
-    <t>0.02278252</t>
-  </si>
-  <si>
-    <t>0.1594777</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>活血</t>
-  </si>
-  <si>
-    <t>增加气血恢复点数</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>465</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>1530</t>
-  </si>
-  <si>
-    <t>2340</t>
-  </si>
-  <si>
-    <t>3848</t>
-  </si>
-  <si>
-    <t>4800</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>6695</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>7954</t>
-  </si>
-  <si>
-    <t>9797</t>
+    <t>8118</t>
+  </si>
+  <si>
+    <t>9696</t>
   </si>
 </sst>
 </file>
@@ -1317,10 +1329,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>14</v>
@@ -1340,13 +1352,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>14</v>
@@ -1366,13 +1378,13 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>14</v>
@@ -1392,13 +1404,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>14</v>
@@ -1418,13 +1430,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>14</v>
@@ -1444,13 +1456,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>14</v>
@@ -1470,10 +1482,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>32</v>
@@ -1499,10 +1511,10 @@
         <v>33</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>14</v>
@@ -1522,13 +1534,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>14</v>
@@ -1539,13 +1551,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>11</v>
@@ -1557,21 +1569,21 @@
         <v>14</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>15</v>
@@ -1583,24 +1595,24 @@
         <v>14</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>14</v>
@@ -1609,24 +1621,24 @@
         <v>14</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>14</v>
@@ -1635,24 +1647,24 @@
         <v>14</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>14</v>
@@ -1661,24 +1673,24 @@
         <v>14</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>14</v>
@@ -1687,24 +1699,24 @@
         <v>14</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>14</v>
@@ -1713,24 +1725,24 @@
         <v>14</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>14</v>
@@ -1739,21 +1751,21 @@
         <v>14</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>33</v>
@@ -1765,24 +1777,24 @@
         <v>14</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>14</v>
@@ -1791,30 +1803,30 @@
         <v>14</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>14</v>
@@ -1825,22 +1837,22 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>14</v>
@@ -1851,22 +1863,22 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>14</v>
@@ -1877,22 +1889,22 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>14</v>
@@ -1903,22 +1915,22 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>14</v>
@@ -1929,22 +1941,22 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>14</v>
@@ -1955,22 +1967,22 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>14</v>
@@ -1981,22 +1993,22 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>14</v>
@@ -2007,22 +2019,22 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>14</v>
@@ -2033,22 +2045,22 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>14</v>
@@ -2059,13 +2071,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>11</v>
@@ -2077,21 +2089,21 @@
         <v>14</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>15</v>
@@ -2103,24 +2115,24 @@
         <v>14</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>14</v>
@@ -2129,24 +2141,24 @@
         <v>14</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>14</v>
@@ -2155,24 +2167,24 @@
         <v>14</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>14</v>
@@ -2181,24 +2193,24 @@
         <v>14</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>14</v>
@@ -2207,24 +2219,24 @@
         <v>14</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>14</v>
@@ -2233,24 +2245,24 @@
         <v>14</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>14</v>
@@ -2259,21 +2271,21 @@
         <v>14</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>33</v>
@@ -2285,24 +2297,24 @@
         <v>14</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>14</v>
@@ -2311,30 +2323,30 @@
         <v>14</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>14</v>
@@ -2345,22 +2357,22 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>14</v>
@@ -2371,22 +2383,22 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>14</v>
@@ -2397,22 +2409,22 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>14</v>
@@ -2423,22 +2435,22 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>14</v>
@@ -2449,22 +2461,22 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>14</v>
@@ -2475,22 +2487,22 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>14</v>
@@ -2501,22 +2513,22 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>14</v>
@@ -2527,22 +2539,22 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>14</v>
@@ -2553,22 +2565,22 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>123</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>14</v>
@@ -2579,13 +2591,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>11</v>
@@ -2597,21 +2609,21 @@
         <v>14</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>15</v>
@@ -2623,24 +2635,24 @@
         <v>14</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>14</v>
@@ -2649,24 +2661,24 @@
         <v>14</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>14</v>
@@ -2675,24 +2687,24 @@
         <v>14</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>14</v>
@@ -2701,24 +2713,24 @@
         <v>14</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>14</v>
@@ -2727,24 +2739,24 @@
         <v>14</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>14</v>
@@ -2753,24 +2765,24 @@
         <v>14</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>14</v>
@@ -2779,21 +2791,21 @@
         <v>14</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>33</v>
@@ -2805,24 +2817,24 @@
         <v>14</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>14</v>
@@ -2831,30 +2843,30 @@
         <v>14</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>14</v>
@@ -2865,22 +2877,22 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>14</v>
@@ -2891,22 +2903,22 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>14</v>
@@ -2917,22 +2929,22 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>14</v>
@@ -2943,22 +2955,22 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>14</v>
@@ -2969,22 +2981,22 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>14</v>
@@ -2995,19 +3007,19 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>162</v>
@@ -3021,22 +3033,22 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E69" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F69" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>164</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>14</v>
@@ -3047,22 +3059,22 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>14</v>
@@ -3073,22 +3085,22 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>14</v>
@@ -3099,13 +3111,13 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="C72" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>169</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>11</v>
@@ -3117,21 +3129,21 @@
         <v>14</v>
       </c>
       <c r="G72" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="H72" s="0" t="s">
         <v>170</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="C73" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>169</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>15</v>
@@ -3143,24 +3155,24 @@
         <v>14</v>
       </c>
       <c r="G73" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="H73" s="0" t="s">
         <v>172</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="C74" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C74" s="0" t="s">
-        <v>169</v>
-      </c>
       <c r="D74" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>14</v>
@@ -3169,24 +3181,24 @@
         <v>14</v>
       </c>
       <c r="G74" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="H74" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="C75" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>169</v>
-      </c>
       <c r="D75" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>14</v>
@@ -3195,24 +3207,24 @@
         <v>14</v>
       </c>
       <c r="G75" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="H75" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="C76" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>169</v>
-      </c>
       <c r="D76" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>14</v>
@@ -3221,24 +3233,24 @@
         <v>14</v>
       </c>
       <c r="G76" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H76" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="C77" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>169</v>
-      </c>
       <c r="D77" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>14</v>
@@ -3247,24 +3259,24 @@
         <v>14</v>
       </c>
       <c r="G77" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="H77" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="C78" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>169</v>
-      </c>
       <c r="D78" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>14</v>
@@ -3273,24 +3285,24 @@
         <v>14</v>
       </c>
       <c r="G78" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="H78" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="C79" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="0" t="s">
-        <v>169</v>
-      </c>
       <c r="D79" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>14</v>
@@ -3299,21 +3311,21 @@
         <v>14</v>
       </c>
       <c r="G79" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="H79" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="C80" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>169</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>33</v>
@@ -3325,24 +3337,24 @@
         <v>14</v>
       </c>
       <c r="G80" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="H80" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="C81" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C81" s="0" t="s">
-        <v>169</v>
-      </c>
       <c r="D81" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>14</v>
@@ -3351,27 +3363,27 @@
         <v>14</v>
       </c>
       <c r="G81" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="H81" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="C82" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>192</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F82" s="0" t="s">
         <v>193</v>
@@ -3385,22 +3397,22 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="C83" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>192</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>14</v>
@@ -3411,22 +3423,22 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="C84" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C84" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="D84" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>14</v>
@@ -3437,22 +3449,22 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="C85" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C85" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="D85" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>196</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>14</v>
@@ -3463,19 +3475,19 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="C86" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C86" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="D86" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>199</v>
@@ -3489,16 +3501,16 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B87" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="C87" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C87" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="D87" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>200</v>
@@ -3515,19 +3527,19 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="C88" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C88" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="D88" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="F88" s="0" t="s">
         <v>202</v>
@@ -3541,16 +3553,16 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="C89" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C89" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="D89" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E89" s="0" t="s">
         <v>203</v>
@@ -3567,22 +3579,22 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="C90" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>192</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>14</v>
@@ -3593,22 +3605,22 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="C91" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C91" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="D91" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>14</v>
@@ -3619,13 +3631,13 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>11</v>
@@ -3637,21 +3649,21 @@
         <v>14</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>15</v>
@@ -3663,24 +3675,24 @@
         <v>14</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>14</v>
@@ -3689,24 +3701,24 @@
         <v>14</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E95" s="0" t="s">
         <v>14</v>
@@ -3715,24 +3727,24 @@
         <v>14</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>14</v>
@@ -3741,24 +3753,24 @@
         <v>14</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>14</v>
@@ -3767,24 +3779,24 @@
         <v>14</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>14</v>
@@ -3793,24 +3805,24 @@
         <v>14</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>14</v>
@@ -3819,21 +3831,21 @@
         <v>14</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>33</v>
@@ -3845,24 +3857,24 @@
         <v>14</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>14</v>
@@ -3871,30 +3883,30 @@
         <v>14</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>234</v>
+        <v>68</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>14</v>
@@ -3905,13 +3917,13 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>15</v>
@@ -3931,22 +3943,22 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E104" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="F104" s="0" t="s">
-        <v>238</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>14</v>
@@ -3957,19 +3969,19 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F105" s="0" t="s">
         <v>239</v>
@@ -3983,22 +3995,22 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>14</v>
@@ -4009,22 +4021,22 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>14</v>
@@ -4035,22 +4047,22 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>31</v>
+        <v>244</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>14</v>
@@ -4061,22 +4073,22 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>14</v>
@@ -4087,22 +4099,22 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>14</v>
@@ -4113,22 +4125,22 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>14</v>
@@ -4139,13 +4151,13 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>11</v>
@@ -4157,21 +4169,21 @@
         <v>14</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>15</v>
@@ -4183,24 +4195,24 @@
         <v>14</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E114" s="0" t="s">
         <v>14</v>
@@ -4209,24 +4221,24 @@
         <v>14</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E115" s="0" t="s">
         <v>14</v>
@@ -4235,24 +4247,24 @@
         <v>14</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E116" s="0" t="s">
         <v>14</v>
@@ -4261,24 +4273,24 @@
         <v>14</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E117" s="0" t="s">
         <v>14</v>
@@ -4287,24 +4299,24 @@
         <v>14</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E118" s="0" t="s">
         <v>14</v>
@@ -4313,24 +4325,24 @@
         <v>14</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E119" s="0" t="s">
         <v>14</v>
@@ -4339,21 +4351,21 @@
         <v>14</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>33</v>
@@ -4365,24 +4377,24 @@
         <v>14</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E121" s="0" t="s">
         <v>14</v>
@@ -4391,21 +4403,21 @@
         <v>14</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>11</v>
@@ -4417,21 +4429,21 @@
         <v>14</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>15</v>
@@ -4443,24 +4455,24 @@
         <v>14</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E124" s="0" t="s">
         <v>14</v>
@@ -4469,24 +4481,24 @@
         <v>14</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E125" s="0" t="s">
         <v>14</v>
@@ -4495,24 +4507,24 @@
         <v>14</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>14</v>
@@ -4521,24 +4533,24 @@
         <v>14</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E127" s="0" t="s">
         <v>14</v>
@@ -4547,24 +4559,24 @@
         <v>14</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E128" s="0" t="s">
         <v>14</v>
@@ -4573,24 +4585,24 @@
         <v>14</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>14</v>
@@ -4599,21 +4611,21 @@
         <v>14</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>33</v>
@@ -4625,24 +4637,24 @@
         <v>14</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E131" s="0" t="s">
         <v>14</v>
@@ -4651,21 +4663,21 @@
         <v>14</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>11</v>
@@ -4677,21 +4689,21 @@
         <v>14</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>15</v>
@@ -4703,24 +4715,24 @@
         <v>14</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>299</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E134" s="0" t="s">
         <v>14</v>
@@ -4732,21 +4744,21 @@
         <v>300</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>301</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E135" s="0" t="s">
         <v>14</v>
@@ -4755,24 +4767,24 @@
         <v>14</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E136" s="0" t="s">
         <v>14</v>
@@ -4781,24 +4793,24 @@
         <v>14</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E137" s="0" t="s">
         <v>14</v>
@@ -4807,24 +4819,24 @@
         <v>14</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>154</v>
+        <v>306</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E138" s="0" t="s">
         <v>14</v>
@@ -4833,24 +4845,24 @@
         <v>14</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E139" s="0" t="s">
         <v>14</v>
@@ -4859,21 +4871,21 @@
         <v>14</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>152</v>
+        <v>308</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>33</v>
@@ -4885,24 +4897,24 @@
         <v>14</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E141" s="0" t="s">
         <v>14</v>
@@ -4911,21 +4923,21 @@
         <v>14</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>11</v>
@@ -4945,13 +4957,13 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>15</v>
@@ -4960,7 +4972,7 @@
         <v>8</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G143" s="0" t="s">
         <v>14</v>
@@ -4971,22 +4983,22 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E144" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G144" s="0" t="s">
         <v>14</v>
@@ -4997,22 +5009,22 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E145" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G145" s="0" t="s">
         <v>14</v>
@@ -5023,22 +5035,22 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E146" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G146" s="0" t="s">
         <v>14</v>
@@ -5049,22 +5061,22 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E147" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G147" s="0" t="s">
         <v>14</v>
@@ -5075,22 +5087,22 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E148" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G148" s="0" t="s">
         <v>14</v>
@@ -5101,22 +5113,22 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E149" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G149" s="0" t="s">
         <v>14</v>
@@ -5127,13 +5139,13 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>33</v>
@@ -5142,7 +5154,7 @@
         <v>8</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G150" s="0" t="s">
         <v>14</v>
@@ -5153,22 +5165,22 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E151" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G151" s="0" t="s">
         <v>14</v>
@@ -5179,13 +5191,13 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>11</v>
@@ -5205,13 +5217,13 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>15</v>
@@ -5220,7 +5232,7 @@
         <v>8</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G153" s="0" t="s">
         <v>14</v>
@@ -5231,22 +5243,22 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E154" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G154" s="0" t="s">
         <v>14</v>
@@ -5257,22 +5269,22 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E155" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G155" s="0" t="s">
         <v>14</v>
@@ -5283,22 +5295,22 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E156" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G156" s="0" t="s">
         <v>14</v>
@@ -5309,22 +5321,22 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E157" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G157" s="0" t="s">
         <v>14</v>
@@ -5335,22 +5347,22 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E158" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G158" s="0" t="s">
         <v>14</v>
@@ -5361,22 +5373,22 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E159" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G159" s="0" t="s">
         <v>14</v>
@@ -5387,13 +5399,13 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>33</v>
@@ -5402,7 +5414,7 @@
         <v>8</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G160" s="0" t="s">
         <v>14</v>
@@ -5413,22 +5425,22 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E161" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G161" s="0" t="s">
         <v>14</v>
@@ -5439,13 +5451,13 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>11</v>
@@ -5465,13 +5477,13 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>15</v>
@@ -5480,7 +5492,7 @@
         <v>8</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G163" s="0" t="s">
         <v>14</v>
@@ -5491,22 +5503,22 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E164" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G164" s="0" t="s">
         <v>14</v>
@@ -5517,22 +5529,22 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E165" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G165" s="0" t="s">
         <v>14</v>
@@ -5543,22 +5555,22 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E166" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G166" s="0" t="s">
         <v>14</v>
@@ -5569,22 +5581,22 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E167" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G167" s="0" t="s">
         <v>14</v>
@@ -5595,22 +5607,22 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E168" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G168" s="0" t="s">
         <v>14</v>
@@ -5621,22 +5633,22 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E169" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G169" s="0" t="s">
         <v>14</v>
@@ -5647,13 +5659,13 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>33</v>
@@ -5662,7 +5674,7 @@
         <v>8</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G170" s="0" t="s">
         <v>14</v>
@@ -5673,22 +5685,22 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E171" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G171" s="0" t="s">
         <v>14</v>
@@ -5699,13 +5711,13 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>11</v>
@@ -5725,13 +5737,13 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>15</v>
@@ -5740,7 +5752,7 @@
         <v>8</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G173" s="0" t="s">
         <v>14</v>
@@ -5751,22 +5763,22 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E174" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G174" s="0" t="s">
         <v>14</v>
@@ -5777,22 +5789,22 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E175" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G175" s="0" t="s">
         <v>14</v>
@@ -5803,22 +5815,22 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E176" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G176" s="0" t="s">
         <v>14</v>
@@ -5829,22 +5841,22 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E177" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G177" s="0" t="s">
         <v>14</v>
@@ -5855,22 +5867,22 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E178" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G178" s="0" t="s">
         <v>14</v>
@@ -5881,22 +5893,22 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E179" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G179" s="0" t="s">
         <v>14</v>
@@ -5907,13 +5919,13 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>33</v>
@@ -5922,7 +5934,7 @@
         <v>8</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G180" s="0" t="s">
         <v>14</v>
@@ -5933,22 +5945,22 @@
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E181" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G181" s="0" t="s">
         <v>14</v>
@@ -5959,13 +5971,13 @@
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>11</v>
@@ -5985,13 +5997,13 @@
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>15</v>
@@ -6000,7 +6012,7 @@
         <v>8</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G183" s="0" t="s">
         <v>14</v>
@@ -6011,22 +6023,22 @@
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E184" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G184" s="0" t="s">
         <v>14</v>
@@ -6037,22 +6049,22 @@
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E185" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G185" s="0" t="s">
         <v>14</v>
@@ -6063,22 +6075,22 @@
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E186" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G186" s="0" t="s">
         <v>14</v>
@@ -6089,22 +6101,22 @@
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E187" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G187" s="0" t="s">
         <v>14</v>
@@ -6115,22 +6127,22 @@
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E188" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G188" s="0" t="s">
         <v>14</v>
@@ -6141,22 +6153,22 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E189" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G189" s="0" t="s">
         <v>14</v>
@@ -6167,13 +6179,13 @@
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>33</v>
@@ -6182,7 +6194,7 @@
         <v>8</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G190" s="0" t="s">
         <v>14</v>
@@ -6193,22 +6205,22 @@
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E191" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G191" s="0" t="s">
         <v>14</v>
@@ -6219,13 +6231,13 @@
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>11</v>
@@ -6245,13 +6257,13 @@
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>15</v>
@@ -6260,7 +6272,7 @@
         <v>8</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G193" s="0" t="s">
         <v>14</v>
@@ -6271,22 +6283,22 @@
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E194" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G194" s="0" t="s">
         <v>14</v>
@@ -6297,22 +6309,22 @@
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E195" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G195" s="0" t="s">
         <v>14</v>
@@ -6323,22 +6335,22 @@
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E196" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G196" s="0" t="s">
         <v>14</v>
@@ -6349,22 +6361,22 @@
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E197" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G197" s="0" t="s">
         <v>14</v>
@@ -6375,22 +6387,22 @@
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E198" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G198" s="0" t="s">
         <v>14</v>
@@ -6401,22 +6413,22 @@
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E199" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G199" s="0" t="s">
         <v>14</v>
@@ -6427,13 +6439,13 @@
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>33</v>
@@ -6442,7 +6454,7 @@
         <v>8</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G200" s="0" t="s">
         <v>14</v>
@@ -6453,22 +6465,22 @@
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E201" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G201" s="0" t="s">
         <v>14</v>
@@ -6479,13 +6491,13 @@
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>11</v>
@@ -6505,13 +6517,13 @@
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>15</v>
@@ -6520,7 +6532,7 @@
         <v>8</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G203" s="0" t="s">
         <v>14</v>
@@ -6531,22 +6543,22 @@
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E204" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G204" s="0" t="s">
         <v>14</v>
@@ -6557,22 +6569,22 @@
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E205" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G205" s="0" t="s">
         <v>14</v>
@@ -6583,22 +6595,22 @@
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E206" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G206" s="0" t="s">
         <v>14</v>
@@ -6609,22 +6621,22 @@
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E207" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G207" s="0" t="s">
         <v>14</v>
@@ -6635,22 +6647,22 @@
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E208" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G208" s="0" t="s">
         <v>14</v>
@@ -6661,22 +6673,22 @@
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E209" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G209" s="0" t="s">
         <v>14</v>
@@ -6687,13 +6699,13 @@
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>33</v>
@@ -6702,7 +6714,7 @@
         <v>8</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G210" s="0" t="s">
         <v>14</v>
@@ -6713,22 +6725,22 @@
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E211" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G211" s="0" t="s">
         <v>14</v>
@@ -6739,16 +6751,16 @@
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E212" s="0" t="s">
         <v>14</v>
@@ -6757,24 +6769,24 @@
         <v>14</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E213" s="0" t="s">
         <v>14</v>
@@ -6783,24 +6795,24 @@
         <v>14</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E214" s="0" t="s">
         <v>14</v>
@@ -6809,24 +6821,24 @@
         <v>14</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E215" s="0" t="s">
         <v>14</v>
@@ -6835,24 +6847,24 @@
         <v>14</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E216" s="0" t="s">
         <v>14</v>
@@ -6861,24 +6873,24 @@
         <v>14</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E217" s="0" t="s">
         <v>14</v>
@@ -6887,24 +6899,24 @@
         <v>14</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E218" s="0" t="s">
         <v>14</v>
@@ -6913,24 +6925,24 @@
         <v>14</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E219" s="0" t="s">
         <v>14</v>
@@ -6939,21 +6951,21 @@
         <v>14</v>
       </c>
       <c r="G219" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>33</v>
@@ -6965,24 +6977,24 @@
         <v>14</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E221" s="0" t="s">
         <v>14</v>
@@ -6991,7 +7003,7 @@
         <v>14</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H221" s="0" t="s">
         <v>8</v>
@@ -6999,16 +7011,16 @@
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E222" s="0" t="s">
         <v>8</v>
@@ -7025,16 +7037,16 @@
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E223" s="0" t="s">
         <v>8</v>
@@ -7051,16 +7063,16 @@
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E224" s="0" t="s">
         <v>8</v>
@@ -7077,16 +7089,16 @@
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E225" s="0" t="s">
         <v>8</v>
@@ -7103,16 +7115,16 @@
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E226" s="0" t="s">
         <v>8</v>
@@ -7129,16 +7141,16 @@
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E227" s="0" t="s">
         <v>8</v>
@@ -7155,16 +7167,16 @@
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E228" s="0" t="s">
         <v>8</v>
@@ -7181,16 +7193,16 @@
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E229" s="0" t="s">
         <v>8</v>
@@ -7207,13 +7219,13 @@
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>33</v>
@@ -7222,7 +7234,7 @@
         <v>8</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G230" s="0" t="s">
         <v>14</v>
@@ -7233,22 +7245,22 @@
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E231" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G231" s="0" t="s">
         <v>14</v>
@@ -7259,16 +7271,16 @@
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E232" s="0" t="s">
         <v>14</v>
@@ -7277,24 +7289,24 @@
         <v>14</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E233" s="0" t="s">
         <v>14</v>
@@ -7303,24 +7315,24 @@
         <v>14</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E234" s="0" t="s">
         <v>14</v>
@@ -7329,24 +7341,24 @@
         <v>14</v>
       </c>
       <c r="G234" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E235" s="0" t="s">
         <v>14</v>
@@ -7355,24 +7367,24 @@
         <v>14</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E236" s="0" t="s">
         <v>14</v>
@@ -7381,24 +7393,24 @@
         <v>14</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E237" s="0" t="s">
         <v>14</v>
@@ -7407,24 +7419,24 @@
         <v>14</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E238" s="0" t="s">
         <v>14</v>
@@ -7433,24 +7445,24 @@
         <v>14</v>
       </c>
       <c r="G238" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E239" s="0" t="s">
         <v>14</v>
@@ -7459,21 +7471,21 @@
         <v>14</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D240" s="0" t="s">
         <v>33</v>
@@ -7485,24 +7497,24 @@
         <v>14</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E241" s="0" t="s">
         <v>14</v>
@@ -7511,24 +7523,24 @@
         <v>14</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E242" s="0" t="s">
         <v>14</v>
@@ -7537,24 +7549,24 @@
         <v>14</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E243" s="0" t="s">
         <v>14</v>
@@ -7563,24 +7575,24 @@
         <v>14</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E244" s="0" t="s">
         <v>14</v>
@@ -7589,24 +7601,24 @@
         <v>14</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E245" s="0" t="s">
         <v>14</v>
@@ -7615,24 +7627,24 @@
         <v>14</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E246" s="0" t="s">
         <v>14</v>
@@ -7641,24 +7653,24 @@
         <v>14</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E247" s="0" t="s">
         <v>14</v>
@@ -7667,24 +7679,24 @@
         <v>14</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E248" s="0" t="s">
         <v>14</v>
@@ -7693,24 +7705,24 @@
         <v>14</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E249" s="0" t="s">
         <v>14</v>
@@ -7719,21 +7731,21 @@
         <v>14</v>
       </c>
       <c r="G249" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D250" s="0" t="s">
         <v>33</v>
@@ -7745,24 +7757,24 @@
         <v>14</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E251" s="0" t="s">
         <v>14</v>
@@ -7771,30 +7783,30 @@
         <v>14</v>
       </c>
       <c r="G251" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D252" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G252" s="0" t="s">
         <v>14</v>
@@ -7805,22 +7817,22 @@
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>161</v>
+        <v>388</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G253" s="0" t="s">
         <v>14</v>
@@ -7831,22 +7843,22 @@
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G254" s="0" t="s">
         <v>14</v>
@@ -7857,22 +7869,22 @@
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G255" s="0" t="s">
         <v>14</v>
@@ -7883,22 +7895,22 @@
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>154</v>
+        <v>388</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G256" s="0" t="s">
         <v>14</v>
@@ -7909,22 +7921,22 @@
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>193</v>
+        <v>386</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G257" s="0" t="s">
         <v>14</v>
@@ -7935,22 +7947,22 @@
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G258" s="0" t="s">
         <v>14</v>
@@ -7961,22 +7973,22 @@
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G259" s="0" t="s">
         <v>14</v>
@@ -7987,22 +7999,22 @@
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G260" s="0" t="s">
         <v>14</v>
@@ -8013,22 +8025,22 @@
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>393</v>
+        <v>71</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G261" s="0" t="s">
         <v>14</v>

--- a/docs/诀要成长报表.xlsx
+++ b/docs/诀要成长报表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <si>
     <t>诀要类型</t>
   </si>
@@ -50,1168 +50,1162 @@
     <t>白</t>
   </si>
   <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>1245</t>
+  </si>
+  <si>
+    <t>紫</t>
+  </si>
+  <si>
     <t>205</t>
   </si>
   <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>绿</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>662</t>
-  </si>
-  <si>
-    <t>蓝</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>947</t>
-  </si>
-  <si>
-    <t>紫</t>
+    <t>1845</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>2496</t>
+  </si>
+  <si>
+    <t>橙</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>3202</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>3962</t>
+  </si>
+  <si>
+    <t>闪金</t>
+  </si>
+  <si>
+    <t>4654</t>
+  </si>
+  <si>
+    <t>闪橙</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>5488</t>
+  </si>
+  <si>
+    <t>闪红</t>
+  </si>
+  <si>
+    <t>6687</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>飞仙</t>
+  </si>
+  <si>
+    <t>增减益气血上限比例</t>
+  </si>
+  <si>
+    <t>0.1263572</t>
+  </si>
+  <si>
+    <t>0.2527144</t>
+  </si>
+  <si>
+    <t>0.157582</t>
+  </si>
+  <si>
+    <t>0.5196104</t>
+  </si>
+  <si>
+    <t>0.1526697</t>
+  </si>
+  <si>
+    <t>0.7232257</t>
+  </si>
+  <si>
+    <t>0.1434238</t>
+  </si>
+  <si>
+    <t>0.9004189</t>
+  </si>
+  <si>
+    <t>0.1522554</t>
+  </si>
+  <si>
+    <t>1.202612</t>
+  </si>
+  <si>
+    <t>0.1441903</t>
+  </si>
+  <si>
+    <t>1.382182</t>
+  </si>
+  <si>
+    <t>0.1614107</t>
+  </si>
+  <si>
+    <t>1.82885</t>
+  </si>
+  <si>
+    <t>0.1286747</t>
+  </si>
+  <si>
+    <t>1.68895</t>
+  </si>
+  <si>
+    <t>0.1041999</t>
+  </si>
+  <si>
+    <t>1.559519</t>
+  </si>
+  <si>
+    <t>0.1586371</t>
+  </si>
+  <si>
+    <t>2.672866</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>破甲</t>
+  </si>
+  <si>
+    <t>增减益外功点数</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>1141</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>1529</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>2249</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>3317</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>3803</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>4308</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>6281</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>开山</t>
+  </si>
+  <si>
+    <t>增减益外功比例</t>
+  </si>
+  <si>
+    <t>0.1062478</t>
+  </si>
+  <si>
+    <t>0.2124955</t>
+  </si>
+  <si>
+    <t>0.09213191</t>
+  </si>
+  <si>
+    <t>0.3914694</t>
+  </si>
+  <si>
+    <t>0.1090565</t>
+  </si>
+  <si>
+    <t>0.8149801</t>
+  </si>
+  <si>
+    <t>0.1045496</t>
+  </si>
+  <si>
+    <t>1.208182</t>
+  </si>
+  <si>
+    <t>0.1075797</t>
+  </si>
+  <si>
+    <t>1.767087</t>
+  </si>
+  <si>
+    <t>0.09630176</t>
+  </si>
+  <si>
+    <t>2.121611</t>
+  </si>
+  <si>
+    <t>0.1052077</t>
+  </si>
+  <si>
+    <t>2.980712</t>
+  </si>
+  <si>
+    <t>0.09227137</t>
+  </si>
+  <si>
+    <t>3.25688</t>
+  </si>
+  <si>
+    <t>0.1068954</t>
+  </si>
+  <si>
+    <t>4.585793</t>
+  </si>
+  <si>
+    <t>0.1025079</t>
+  </si>
+  <si>
+    <t>5.240076</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>坚毅</t>
+  </si>
+  <si>
+    <t>增减益外防点数</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>761</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>1386</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>1766</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>2285</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>刚强</t>
+  </si>
+  <si>
+    <t>增减益外防比例</t>
+  </si>
+  <si>
+    <t>0.06932801</t>
+  </si>
+  <si>
+    <t>0.138656</t>
+  </si>
+  <si>
+    <t>0.06205538</t>
+  </si>
+  <si>
+    <t>0.2148536</t>
+  </si>
+  <si>
+    <t>0.06817764</t>
+  </si>
+  <si>
+    <t>0.352558</t>
+  </si>
+  <si>
+    <t>0.06893395</t>
+  </si>
+  <si>
+    <t>0.4868712</t>
+  </si>
+  <si>
+    <t>0.0767125</t>
+  </si>
+  <si>
+    <t>0.6983355</t>
+  </si>
+  <si>
+    <t>0.07621251</t>
+  </si>
+  <si>
+    <t>0.8589621</t>
+  </si>
+  <si>
+    <t>0.06331504</t>
+  </si>
+  <si>
+    <t>0.8578889</t>
+  </si>
+  <si>
+    <t>0.07142346</t>
+  </si>
+  <si>
+    <t>1.13767</t>
+  </si>
+  <si>
+    <t>0.07060288</t>
+  </si>
+  <si>
+    <t>1.298997</t>
+  </si>
+  <si>
+    <t>0.05506799</t>
+  </si>
+  <si>
+    <t>1.153819</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>暗流</t>
+  </si>
+  <si>
+    <t>增减益内功点数</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>764</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>1194</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>1816</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>2144</t>
+  </si>
+  <si>
+    <t>3351</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>3890</t>
+  </si>
+  <si>
+    <t>4628</t>
+  </si>
+  <si>
+    <t>6217</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>怒涛</t>
+  </si>
+  <si>
+    <t>增减益内功比例</t>
+  </si>
+  <si>
+    <t>0.1086501</t>
+  </si>
+  <si>
+    <t>0.2173002</t>
+  </si>
+  <si>
+    <t>0.1065341</t>
+  </si>
+  <si>
+    <t>0.4526643</t>
+  </si>
+  <si>
+    <t>0.09518786</t>
+  </si>
+  <si>
+    <t>0.7113397</t>
+  </si>
+  <si>
+    <t>0.09172647</t>
+  </si>
+  <si>
+    <t>1.059997</t>
+  </si>
+  <si>
+    <t>0.09163039</t>
+  </si>
+  <si>
+    <t>1.505107</t>
+  </si>
+  <si>
+    <t>0.09527118</t>
+  </si>
+  <si>
+    <t>2.098907</t>
+  </si>
+  <si>
+    <t>0.1003085</t>
+  </si>
+  <si>
+    <t>2.841911</t>
+  </si>
+  <si>
+    <t>0.1060361</t>
+  </si>
+  <si>
+    <t>3.74273</t>
+  </si>
+  <si>
+    <t>0.1006142</t>
+  </si>
+  <si>
+    <t>4.316331</t>
+  </si>
+  <si>
+    <t>0.1002005</t>
+  </si>
+  <si>
+    <t>5.122122</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>磐石</t>
+  </si>
+  <si>
+    <t>增减益内防点数</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>763</t>
+  </si>
+  <si>
+    <t>891</t>
+  </si>
+  <si>
+    <t>1174</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>1327</t>
+  </si>
+  <si>
+    <t>1420</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>涅槃</t>
+  </si>
+  <si>
+    <t>增减益内防比例</t>
+  </si>
+  <si>
+    <t>0.05158174</t>
+  </si>
+  <si>
+    <t>0.1031635</t>
+  </si>
+  <si>
+    <t>0.06492401</t>
+  </si>
+  <si>
+    <t>0.2247857</t>
+  </si>
+  <si>
+    <t>0.05212149</t>
+  </si>
+  <si>
+    <t>0.269529</t>
+  </si>
+  <si>
+    <t>0.05685441</t>
+  </si>
+  <si>
+    <t>0.4015551</t>
+  </si>
+  <si>
+    <t>0.07650918</t>
+  </si>
+  <si>
+    <t>0.6964846</t>
+  </si>
+  <si>
+    <t>0.07883993</t>
+  </si>
+  <si>
+    <t>0.8885747</t>
+  </si>
+  <si>
+    <t>0.06523459</t>
+  </si>
+  <si>
+    <t>0.883898</t>
+  </si>
+  <si>
+    <t>0.06841247</t>
+  </si>
+  <si>
+    <t>1.08971</t>
+  </si>
+  <si>
+    <t>0.07744674</t>
+  </si>
+  <si>
+    <t>1.424914</t>
+  </si>
+  <si>
+    <t>0.07840283</t>
+  </si>
+  <si>
+    <t>1.642745</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>追命</t>
+  </si>
+  <si>
+    <t>增减益固定伤害值</t>
   </si>
   <si>
     <t>199</t>
   </si>
   <si>
-    <t>1249</t>
-  </si>
-  <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>1619</t>
-  </si>
-  <si>
-    <t>橙</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>1888</t>
-  </si>
-  <si>
-    <t>红</t>
-  </si>
-  <si>
-    <t>2232</t>
-  </si>
-  <si>
-    <t>闪金</t>
-  </si>
-  <si>
-    <t>2638</t>
-  </si>
-  <si>
-    <t>闪橙</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>3038</t>
-  </si>
-  <si>
-    <t>闪红</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>3437</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>飞仙</t>
-  </si>
-  <si>
-    <t>增减益气血上限比例</t>
-  </si>
-  <si>
-    <t>0.1302184</t>
-  </si>
-  <si>
-    <t>0.2604369</t>
-  </si>
-  <si>
-    <t>0.1373103</t>
-  </si>
-  <si>
-    <t>0.4527665</t>
-  </si>
-  <si>
-    <t>0.1409444</t>
-  </si>
-  <si>
-    <t>0.6676808</t>
-  </si>
-  <si>
-    <t>0.1407411</t>
-  </si>
-  <si>
-    <t>0.8835773</t>
-  </si>
-  <si>
-    <t>0.1363436</t>
-  </si>
-  <si>
-    <t>1.07693</t>
-  </si>
-  <si>
-    <t>0.1238335</t>
-  </si>
-  <si>
-    <t>1.187045</t>
-  </si>
-  <si>
-    <t>0.1250536</t>
-  </si>
-  <si>
-    <t>1.416908</t>
-  </si>
-  <si>
-    <t>0.1432101</t>
-  </si>
-  <si>
-    <t>1.879737</t>
-  </si>
-  <si>
-    <t>0.1070022</t>
-  </si>
-  <si>
-    <t>1.60146</t>
-  </si>
-  <si>
-    <t>0.1080491</t>
-  </si>
-  <si>
-    <t>1.820512</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>破甲</t>
-  </si>
-  <si>
-    <t>增减益外功点数</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>822</t>
+    <t>217</t>
+  </si>
+  <si>
+    <t>922</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>1509</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>2461</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>3088</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>4207</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>6176</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>7482</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>9437</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>11808</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>骁勇</t>
+  </si>
+  <si>
+    <t>增减益伤害比例</t>
+  </si>
+  <si>
+    <t>0.06342179</t>
+  </si>
+  <si>
+    <t>0.1268436</t>
+  </si>
+  <si>
+    <t>0.0699755</t>
+  </si>
+  <si>
+    <t>0.2199713</t>
+  </si>
+  <si>
+    <t>0.07404286</t>
+  </si>
+  <si>
+    <t>0.3219658</t>
+  </si>
+  <si>
+    <t>0.06522383</t>
+  </si>
+  <si>
+    <t>0.3649139</t>
+  </si>
+  <si>
+    <t>0.05160543</t>
+  </si>
+  <si>
+    <t>0.354689</t>
+  </si>
+  <si>
+    <t>0.0586723</t>
+  </si>
+  <si>
+    <t>0.4797862</t>
+  </si>
+  <si>
+    <t>0.06826305</t>
+  </si>
+  <si>
+    <t>0.6487514</t>
+  </si>
+  <si>
+    <t>0.07405439</t>
+  </si>
+  <si>
+    <t>0.8034276</t>
+  </si>
+  <si>
+    <t>0.05266004</t>
+  </si>
+  <si>
+    <t>0.6430622</t>
+  </si>
+  <si>
+    <t>0.06271559</t>
+  </si>
+  <si>
+    <t>0.8522581</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>布阵</t>
+  </si>
+  <si>
+    <t>增减益减伤比例</t>
+  </si>
+  <si>
+    <t>0.04506215</t>
+  </si>
+  <si>
+    <t>0.09012431</t>
+  </si>
+  <si>
+    <t>0.04528791</t>
+  </si>
+  <si>
+    <t>0.1093347</t>
+  </si>
+  <si>
+    <t>0.03008794</t>
+  </si>
+  <si>
+    <t>0.08220178</t>
+  </si>
+  <si>
+    <t>0.04537255</t>
+  </si>
+  <si>
+    <t>0.1361177</t>
+  </si>
+  <si>
+    <t>0.03816984</t>
+  </si>
+  <si>
+    <t>0.1235202</t>
+  </si>
+  <si>
+    <t>0.03327248</t>
+  </si>
+  <si>
+    <t>0.1147731</t>
+  </si>
+  <si>
+    <t>0.04051094</t>
+  </si>
+  <si>
+    <t>0.1476928</t>
+  </si>
+  <si>
+    <t>0.03512713</t>
+  </si>
+  <si>
+    <t>0.1344816</t>
+  </si>
+  <si>
+    <t>0.0457488</t>
+  </si>
+  <si>
+    <t>0.1829952</t>
+  </si>
+  <si>
+    <t>0.03972666</t>
+  </si>
+  <si>
+    <t>0.1653534</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>轻灵</t>
+  </si>
+  <si>
+    <t>增减益轻功点数</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>驭毒</t>
+  </si>
+  <si>
+    <t>中毒抵抗</t>
+  </si>
+  <si>
+    <t>站桩</t>
+  </si>
+  <si>
+    <t>缴械抵抗</t>
+  </si>
+  <si>
+    <t>清醒</t>
+  </si>
+  <si>
+    <t>眩晕抵抗</t>
+  </si>
+  <si>
+    <t>腾挪</t>
+  </si>
+  <si>
+    <t>定身抵抗</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>敏锐</t>
+  </si>
+  <si>
+    <t>迟缓抵抗</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>沉稳</t>
+  </si>
+  <si>
+    <t>混乱抵抗</t>
+  </si>
+  <si>
+    <t>冷静</t>
+  </si>
+  <si>
+    <t>惊慌抵抗</t>
+  </si>
+  <si>
+    <t>行云流水</t>
+  </si>
+  <si>
+    <t>减少武功招式CD时间</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>不死金刚</t>
+  </si>
+  <si>
+    <t>抵御n次阵亡效果</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>一击必杀</t>
+  </si>
+  <si>
+    <t>n%概率秒杀敌方(对Boss无效)</t>
+  </si>
+  <si>
+    <t>0.02734457</t>
+  </si>
+  <si>
+    <t>0.02727504</t>
+  </si>
+  <si>
+    <t>0.02076315</t>
+  </si>
+  <si>
+    <t>0.02925811</t>
+  </si>
+  <si>
+    <t>0.02560507</t>
+  </si>
+  <si>
+    <t>0.02215913</t>
+  </si>
+  <si>
+    <t>0.02291681</t>
+  </si>
+  <si>
+    <t>0.02721442</t>
+  </si>
+  <si>
+    <t>0.05442883</t>
+  </si>
+  <si>
+    <t>0.02170221</t>
+  </si>
+  <si>
+    <t>0.06510664</t>
+  </si>
+  <si>
+    <t>0.02953464</t>
+  </si>
+  <si>
+    <t>0.1181386</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>盆满钵满</t>
+  </si>
+  <si>
+    <t>增加掉落概率n%</t>
+  </si>
+  <si>
+    <t>0.02471351</t>
+  </si>
+  <si>
+    <t>0.02173479</t>
+  </si>
+  <si>
+    <t>0.02036928</t>
+  </si>
+  <si>
+    <t>0.02279507</t>
+  </si>
+  <si>
+    <t>0.02110496</t>
+  </si>
+  <si>
+    <t>0.04220991</t>
+  </si>
+  <si>
+    <t>0.02401473</t>
+  </si>
+  <si>
+    <t>0.0720442</t>
+  </si>
+  <si>
+    <t>0.02029702</t>
+  </si>
+  <si>
+    <t>0.08118808</t>
+  </si>
+  <si>
+    <t>0.02497381</t>
+  </si>
+  <si>
+    <t>0.1248691</t>
+  </si>
+  <si>
+    <t>0.02331326</t>
+  </si>
+  <si>
+    <t>0.1398795</t>
+  </si>
+  <si>
+    <t>0.02199019</t>
+  </si>
+  <si>
+    <t>0.1539314</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>活血</t>
+  </si>
+  <si>
+    <t>增加气血恢复点数</t>
   </si>
   <si>
     <t>96</t>
   </si>
   <si>
-    <t>1260</t>
-  </si>
-  <si>
-    <t>1682</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>2249</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>2770</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>4106</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>4947</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>6281</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>开山</t>
-  </si>
-  <si>
-    <t>增减益外功比例</t>
-  </si>
-  <si>
-    <t>0.1066386</t>
-  </si>
-  <si>
-    <t>0.2132773</t>
-  </si>
-  <si>
-    <t>0.107446</t>
-  </si>
-  <si>
-    <t>0.456539</t>
-  </si>
-  <si>
-    <t>0.09214462</t>
-  </si>
-  <si>
-    <t>0.6885975</t>
-  </si>
-  <si>
-    <t>0.102738</t>
-  </si>
-  <si>
-    <t>1.187246</t>
-  </si>
-  <si>
-    <t>0.1072552</t>
-  </si>
-  <si>
-    <t>1.761757</t>
-  </si>
-  <si>
-    <t>0.09477002</t>
-  </si>
-  <si>
-    <t>2.087866</t>
-  </si>
-  <si>
-    <t>0.09290492</t>
-  </si>
-  <si>
-    <t>2.632154</t>
-  </si>
-  <si>
-    <t>0.09946163</t>
-  </si>
-  <si>
-    <t>3.510673</t>
-  </si>
-  <si>
-    <t>0.09894653</t>
-  </si>
-  <si>
-    <t>4.24479</t>
-  </si>
-  <si>
-    <t>0.09616723</t>
-  </si>
-  <si>
-    <t>4.915946</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>坚毅</t>
-  </si>
-  <si>
-    <t>增减益外防点数</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>664</t>
-  </si>
-  <si>
-    <t>1021</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>1386</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>1558</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>2078</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>刚强</t>
-  </si>
-  <si>
-    <t>增减益外防比例</t>
-  </si>
-  <si>
-    <t>0.07136486</t>
-  </si>
-  <si>
-    <t>0.1427297</t>
-  </si>
-  <si>
-    <t>0.07264514</t>
-  </si>
-  <si>
-    <t>0.2515185</t>
-  </si>
-  <si>
-    <t>0.07593779</t>
-  </si>
-  <si>
-    <t>0.392687</t>
-  </si>
-  <si>
-    <t>0.07535896</t>
-  </si>
-  <si>
-    <t>0.5322502</t>
-  </si>
-  <si>
-    <t>0.06955336</t>
-  </si>
-  <si>
-    <t>0.6331639</t>
-  </si>
-  <si>
-    <t>0.05145734</t>
-  </si>
-  <si>
-    <t>0.5799561</t>
-  </si>
-  <si>
-    <t>0.07400565</t>
-  </si>
-  <si>
-    <t>1.002742</t>
-  </si>
-  <si>
-    <t>0.07208948</t>
-  </si>
-  <si>
-    <t>1.148279</t>
-  </si>
-  <si>
-    <t>0.07873458</t>
-  </si>
-  <si>
-    <t>1.448609</t>
-  </si>
-  <si>
-    <t>0.06263287</t>
-  </si>
-  <si>
-    <t>1.312323</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>暗流</t>
-  </si>
-  <si>
-    <t>增减益内功点数</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>707</t>
-  </si>
-  <si>
-    <t>1312</t>
-  </si>
-  <si>
-    <t>1529</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>2223</t>
-  </si>
-  <si>
-    <t>3283</t>
-  </si>
-  <si>
-    <t>4063</t>
-  </si>
-  <si>
-    <t>5053</t>
-  </si>
-  <si>
-    <t>6409</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>怒涛</t>
-  </si>
-  <si>
-    <t>增减益内功比例</t>
-  </si>
-  <si>
-    <t>0.09232197</t>
-  </si>
-  <si>
-    <t>0.1846439</t>
-  </si>
-  <si>
-    <t>0.09553165</t>
-  </si>
-  <si>
-    <t>0.4059149</t>
-  </si>
-  <si>
-    <t>0.1032993</t>
-  </si>
-  <si>
-    <t>0.7719564</t>
-  </si>
-  <si>
-    <t>0.1069148</t>
-  </si>
-  <si>
-    <t>1.235514</t>
-  </si>
-  <si>
-    <t>0.1081306</t>
-  </si>
-  <si>
-    <t>1.776138</t>
-  </si>
-  <si>
-    <t>0.1086788</t>
-  </si>
-  <si>
-    <t>2.394288</t>
-  </si>
-  <si>
-    <t>0.09802407</t>
-  </si>
-  <si>
-    <t>2.777189</t>
-  </si>
-  <si>
-    <t>0.1075665</t>
-  </si>
-  <si>
-    <t>3.796747</t>
-  </si>
-  <si>
-    <t>0.104818</t>
-  </si>
-  <si>
-    <t>4.496676</t>
-  </si>
-  <si>
-    <t>0.1062499</t>
-  </si>
-  <si>
-    <t>5.431362</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>磐石</t>
-  </si>
-  <si>
-    <t>增减益内防点数</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>590</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>836</t>
-  </si>
-  <si>
-    <t>1292</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>1385</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>1939</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>1795</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>涅槃</t>
-  </si>
-  <si>
-    <t>增减益内防比例</t>
-  </si>
-  <si>
-    <t>0.06826841</t>
-  </si>
-  <si>
-    <t>0.1365368</t>
-  </si>
-  <si>
-    <t>0.06600162</t>
-  </si>
-  <si>
-    <t>0.2285167</t>
-  </si>
-  <si>
-    <t>0.06975135</t>
-  </si>
-  <si>
-    <t>0.3606959</t>
-  </si>
-  <si>
-    <t>0.07918132</t>
-  </si>
-  <si>
-    <t>0.559247</t>
-  </si>
-  <si>
-    <t>0.06745139</t>
-  </si>
-  <si>
-    <t>0.614029</t>
-  </si>
-  <si>
-    <t>0.07299671</t>
-  </si>
-  <si>
-    <t>0.822718</t>
-  </si>
-  <si>
-    <t>0.05780039</t>
-  </si>
-  <si>
-    <t>0.783168</t>
-  </si>
-  <si>
-    <t>0.05267961</t>
-  </si>
-  <si>
-    <t>0.8391085</t>
-  </si>
-  <si>
-    <t>0.07786443</t>
-  </si>
-  <si>
-    <t>1.432599</t>
-  </si>
-  <si>
-    <t>0.07349432</t>
-  </si>
-  <si>
-    <t>1.539899</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>追命</t>
-  </si>
-  <si>
-    <t>增减益固定伤害值</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>1494</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>2415</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>3597</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>4273</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>6289</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>7941</t>
-  </si>
-  <si>
-    <t>8279</t>
-  </si>
-  <si>
-    <t>10070</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>骁勇</t>
-  </si>
-  <si>
-    <t>增减益伤害比例</t>
-  </si>
-  <si>
-    <t>0.06724806</t>
-  </si>
-  <si>
-    <t>0.1344961</t>
-  </si>
-  <si>
-    <t>0.05800077</t>
-  </si>
-  <si>
-    <t>0.1823281</t>
-  </si>
-  <si>
-    <t>0.07192864</t>
-  </si>
-  <si>
-    <t>0.3127723</t>
-  </si>
-  <si>
-    <t>0.05947781</t>
-  </si>
-  <si>
-    <t>0.3327661</t>
-  </si>
-  <si>
-    <t>0.06707948</t>
-  </si>
-  <si>
-    <t>0.4610437</t>
-  </si>
-  <si>
-    <t>0.06043718</t>
-  </si>
-  <si>
-    <t>0.4942183</t>
-  </si>
-  <si>
-    <t>0.05666444</t>
-  </si>
-  <si>
-    <t>0.5385218</t>
-  </si>
-  <si>
-    <t>0.05862519</t>
-  </si>
-  <si>
-    <t>0.6360338</t>
-  </si>
-  <si>
-    <t>0.0545502</t>
-  </si>
-  <si>
-    <t>0.6661441</t>
-  </si>
-  <si>
-    <t>0.05209944</t>
-  </si>
-  <si>
-    <t>0.7079925</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>布阵</t>
-  </si>
-  <si>
-    <t>增减益减伤比例</t>
-  </si>
-  <si>
-    <t>0.05309167</t>
-  </si>
-  <si>
-    <t>0.1061833</t>
-  </si>
-  <si>
-    <t>0.07745249</t>
-  </si>
-  <si>
-    <t>0.2434755</t>
-  </si>
-  <si>
-    <t>0.06375387</t>
-  </si>
-  <si>
-    <t>0.2772254</t>
-  </si>
-  <si>
-    <t>0.06436034</t>
-  </si>
-  <si>
-    <t>0.3600828</t>
-  </si>
-  <si>
-    <t>0.07169846</t>
-  </si>
-  <si>
-    <t>0.4927903</t>
-  </si>
-  <si>
-    <t>0.06435334</t>
-  </si>
-  <si>
-    <t>0.5262422</t>
-  </si>
-  <si>
-    <t>0.05746698</t>
-  </si>
-  <si>
-    <t>0.5461489</t>
-  </si>
-  <si>
-    <t>0.07967182</t>
-  </si>
-  <si>
-    <t>0.864372</t>
-  </si>
-  <si>
-    <t>0.05423037</t>
-  </si>
-  <si>
-    <t>0.6622385</t>
-  </si>
-  <si>
-    <t>0.06582496</t>
-  </si>
-  <si>
-    <t>0.8945122</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>轻灵</t>
-  </si>
-  <si>
-    <t>增减益轻功点数</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>驭毒</t>
-  </si>
-  <si>
-    <t>中毒抵抗</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>站桩</t>
-  </si>
-  <si>
-    <t>缴械抵抗</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>清醒</t>
-  </si>
-  <si>
-    <t>眩晕抵抗</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>腾挪</t>
-  </si>
-  <si>
-    <t>定身抵抗</t>
-  </si>
-  <si>
-    <t>敏锐</t>
-  </si>
-  <si>
-    <t>迟缓抵抗</t>
-  </si>
-  <si>
-    <t>沉稳</t>
-  </si>
-  <si>
-    <t>混乱抵抗</t>
-  </si>
-  <si>
-    <t>冷静</t>
-  </si>
-  <si>
-    <t>惊慌抵抗</t>
-  </si>
-  <si>
-    <t>行云流水</t>
-  </si>
-  <si>
-    <t>减少武功招式CD时间</t>
-  </si>
-  <si>
-    <t>0.02746711</t>
-  </si>
-  <si>
-    <t>0.02723599</t>
-  </si>
-  <si>
-    <t>0.02925302</t>
-  </si>
-  <si>
-    <t>0.02976822</t>
-  </si>
-  <si>
-    <t>0.02971805</t>
-  </si>
-  <si>
-    <t>0.0594361</t>
-  </si>
-  <si>
-    <t>0.02732117</t>
-  </si>
-  <si>
-    <t>0.1366058</t>
-  </si>
-  <si>
-    <t>0.0289877</t>
-  </si>
-  <si>
-    <t>0.289877</t>
-  </si>
-  <si>
-    <t>0.02842126</t>
-  </si>
-  <si>
-    <t>0.4831614</t>
-  </si>
-  <si>
-    <t>0.02831402</t>
-  </si>
-  <si>
-    <t>0.7361645</t>
-  </si>
-  <si>
-    <t>0.02747732</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>不死金刚</t>
-  </si>
-  <si>
-    <t>抵御n次阵亡效果</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>一击必杀</t>
-  </si>
-  <si>
-    <t>n%概率秒杀敌方(对Boss无效)</t>
-  </si>
-  <si>
-    <t>0.02968856</t>
-  </si>
-  <si>
-    <t>0.02338419</t>
-  </si>
-  <si>
-    <t>0.02898975</t>
-  </si>
-  <si>
-    <t>0.02395913</t>
-  </si>
-  <si>
-    <t>0.02788777</t>
-  </si>
-  <si>
-    <t>0.02454804</t>
-  </si>
-  <si>
-    <t>0.02222891</t>
-  </si>
-  <si>
-    <t>0.02319328</t>
-  </si>
-  <si>
-    <t>0.04638655</t>
-  </si>
-  <si>
-    <t>0.02177273</t>
-  </si>
-  <si>
-    <t>0.0653182</t>
-  </si>
-  <si>
-    <t>0.028921</t>
-  </si>
-  <si>
-    <t>0.115684</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>盆满钵满</t>
-  </si>
-  <si>
-    <t>增加掉落概率n%</t>
-  </si>
-  <si>
-    <t>0.02351432</t>
-  </si>
-  <si>
-    <t>0.02282196</t>
-  </si>
-  <si>
-    <t>0.02006411</t>
-  </si>
-  <si>
-    <t>0.02419791</t>
-  </si>
-  <si>
-    <t>0.0227995</t>
-  </si>
-  <si>
-    <t>0.04559901</t>
-  </si>
-  <si>
-    <t>0.02394072</t>
-  </si>
-  <si>
-    <t>0.07182217</t>
-  </si>
-  <si>
-    <t>0.02328805</t>
-  </si>
-  <si>
-    <t>0.09315221</t>
-  </si>
-  <si>
-    <t>0.02344483</t>
-  </si>
-  <si>
-    <t>0.1172241</t>
-  </si>
-  <si>
-    <t>0.02238339</t>
-  </si>
-  <si>
-    <t>0.1343003</t>
-  </si>
-  <si>
-    <t>0.02235827</t>
-  </si>
-  <si>
-    <t>0.1565079</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>活血</t>
-  </si>
-  <si>
-    <t>增加气血恢复点数</t>
+    <t>192</t>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>515</t>
-  </si>
-  <si>
-    <t>950</t>
-  </si>
-  <si>
-    <t>1581</t>
-  </si>
-  <si>
-    <t>2678</t>
-  </si>
-  <si>
-    <t>3737</t>
-  </si>
-  <si>
-    <t>5150</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>5915</t>
+    <t>505</t>
   </si>
   <si>
     <t>99</t>
   </si>
   <si>
-    <t>8118</t>
-  </si>
-  <si>
-    <t>9696</t>
+    <t>990</t>
+  </si>
+  <si>
+    <t>1683</t>
+  </si>
+  <si>
+    <t>2418</t>
+  </si>
+  <si>
+    <t>3663</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>5980</t>
+  </si>
+  <si>
+    <t>7462</t>
+  </si>
+  <si>
+    <t>9797</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1401,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>25</v>
@@ -1459,10 +1453,10 @@
         <v>29</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>14</v>
@@ -1482,13 +1476,13 @@
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>14</v>
@@ -1508,13 +1502,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>14</v>
@@ -1534,10 +1528,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>38</v>
@@ -1742,7 +1736,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>14</v>
@@ -1768,7 +1762,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>14</v>
@@ -1794,7 +1788,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>14</v>
@@ -1927,10 +1921,10 @@
         <v>24</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>14</v>
@@ -1953,10 +1947,10 @@
         <v>26</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>14</v>
@@ -1979,10 +1973,10 @@
         <v>29</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>14</v>
@@ -2002,13 +1996,13 @@
         <v>64</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>14</v>
@@ -2028,13 +2022,13 @@
         <v>64</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>14</v>
@@ -2054,13 +2048,13 @@
         <v>64</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>14</v>
@@ -2071,13 +2065,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>11</v>
@@ -2089,21 +2083,21 @@
         <v>14</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>15</v>
@@ -2115,21 +2109,21 @@
         <v>14</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>18</v>
@@ -2141,21 +2135,21 @@
         <v>14</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>21</v>
@@ -2167,21 +2161,21 @@
         <v>14</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>24</v>
@@ -2193,21 +2187,21 @@
         <v>14</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>26</v>
@@ -2219,21 +2213,21 @@
         <v>14</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>29</v>
@@ -2245,24 +2239,24 @@
         <v>14</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>14</v>
@@ -2271,24 +2265,24 @@
         <v>14</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>14</v>
@@ -2297,24 +2291,24 @@
         <v>14</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>14</v>
@@ -2323,30 +2317,30 @@
         <v>14</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>14</v>
@@ -2357,22 +2351,22 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>14</v>
@@ -2383,13 +2377,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>18</v>
@@ -2409,13 +2403,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>21</v>
@@ -2435,13 +2429,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>24</v>
@@ -2461,22 +2455,22 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>14</v>
@@ -2487,22 +2481,22 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>14</v>
@@ -2513,22 +2507,22 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>14</v>
@@ -2539,19 +2533,19 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>126</v>
@@ -2565,22 +2559,22 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>14</v>
@@ -2591,13 +2585,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>11</v>
@@ -2609,21 +2603,21 @@
         <v>14</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>15</v>
@@ -2635,21 +2629,21 @@
         <v>14</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>18</v>
@@ -2661,21 +2655,21 @@
         <v>14</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>21</v>
@@ -2687,21 +2681,21 @@
         <v>14</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>24</v>
@@ -2713,21 +2707,21 @@
         <v>14</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>26</v>
@@ -2739,21 +2733,21 @@
         <v>14</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>29</v>
@@ -2765,24 +2759,24 @@
         <v>14</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>14</v>
@@ -2791,24 +2785,24 @@
         <v>14</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>14</v>
@@ -2817,24 +2811,24 @@
         <v>14</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>14</v>
@@ -2843,30 +2837,30 @@
         <v>14</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>14</v>
@@ -2877,22 +2871,22 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>14</v>
@@ -2903,22 +2897,22 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>14</v>
@@ -2929,22 +2923,22 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>14</v>
@@ -2955,22 +2949,22 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>14</v>
@@ -2981,22 +2975,22 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>14</v>
@@ -3007,22 +3001,22 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>14</v>
@@ -3033,22 +3027,22 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>14</v>
@@ -3059,22 +3053,22 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>14</v>
@@ -3085,22 +3079,22 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>14</v>
@@ -3111,13 +3105,13 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>11</v>
@@ -3129,21 +3123,21 @@
         <v>14</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>15</v>
@@ -3155,21 +3149,21 @@
         <v>14</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>18</v>
@@ -3181,21 +3175,21 @@
         <v>14</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>21</v>
@@ -3207,21 +3201,21 @@
         <v>14</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>24</v>
@@ -3233,21 +3227,21 @@
         <v>14</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>26</v>
@@ -3259,21 +3253,21 @@
         <v>14</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>29</v>
@@ -3285,24 +3279,24 @@
         <v>14</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>14</v>
@@ -3311,24 +3305,24 @@
         <v>14</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>14</v>
@@ -3337,24 +3331,24 @@
         <v>14</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>14</v>
@@ -3363,30 +3357,30 @@
         <v>14</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>14</v>
@@ -3397,22 +3391,22 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>14</v>
@@ -3423,22 +3417,22 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>18</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>14</v>
@@ -3449,22 +3443,22 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>14</v>
@@ -3475,22 +3469,22 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>14</v>
@@ -3501,22 +3495,22 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>14</v>
@@ -3527,22 +3521,22 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>14</v>
@@ -3553,22 +3547,22 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>14</v>
@@ -3579,22 +3573,22 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>205</v>
+        <v>120</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>14</v>
@@ -3605,22 +3599,22 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>14</v>
@@ -3631,13 +3625,13 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>11</v>
@@ -3649,21 +3643,21 @@
         <v>14</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>15</v>
@@ -3675,21 +3669,21 @@
         <v>14</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>18</v>
@@ -3701,21 +3695,21 @@
         <v>14</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>21</v>
@@ -3727,21 +3721,21 @@
         <v>14</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>24</v>
@@ -3753,21 +3747,21 @@
         <v>14</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>26</v>
@@ -3779,21 +3773,21 @@
         <v>14</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>29</v>
@@ -3805,24 +3799,24 @@
         <v>14</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>14</v>
@@ -3831,24 +3825,24 @@
         <v>14</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E100" s="0" t="s">
         <v>14</v>
@@ -3857,24 +3851,24 @@
         <v>14</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>14</v>
@@ -3883,27 +3877,27 @@
         <v>14</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="F102" s="0" t="s">
         <v>68</v>
@@ -3917,22 +3911,22 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>14</v>
@@ -3943,22 +3937,22 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>18</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>14</v>
@@ -3969,22 +3963,22 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>14</v>
@@ -3995,22 +3989,22 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>14</v>
@@ -4021,22 +4015,22 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>14</v>
@@ -4047,22 +4041,22 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>14</v>
@@ -4073,22 +4067,22 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>14</v>
@@ -4099,22 +4093,22 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>14</v>
@@ -4125,22 +4119,22 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>14</v>
@@ -4151,13 +4145,13 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>11</v>
@@ -4169,21 +4163,21 @@
         <v>14</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>15</v>
@@ -4195,21 +4189,21 @@
         <v>14</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>18</v>
@@ -4221,21 +4215,21 @@
         <v>14</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>21</v>
@@ -4247,21 +4241,21 @@
         <v>14</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>24</v>
@@ -4273,21 +4267,21 @@
         <v>14</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>26</v>
@@ -4299,21 +4293,21 @@
         <v>14</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>29</v>
@@ -4325,24 +4319,24 @@
         <v>14</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E119" s="0" t="s">
         <v>14</v>
@@ -4351,24 +4345,24 @@
         <v>14</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E120" s="0" t="s">
         <v>14</v>
@@ -4377,24 +4371,24 @@
         <v>14</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E121" s="0" t="s">
         <v>14</v>
@@ -4403,21 +4397,21 @@
         <v>14</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>11</v>
@@ -4429,21 +4423,21 @@
         <v>14</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>15</v>
@@ -4455,21 +4449,21 @@
         <v>14</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>18</v>
@@ -4481,21 +4475,21 @@
         <v>14</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>21</v>
@@ -4507,21 +4501,21 @@
         <v>14</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>24</v>
@@ -4533,21 +4527,21 @@
         <v>14</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>26</v>
@@ -4559,21 +4553,21 @@
         <v>14</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>29</v>
@@ -4585,24 +4579,24 @@
         <v>14</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>14</v>
@@ -4611,24 +4605,24 @@
         <v>14</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E130" s="0" t="s">
         <v>14</v>
@@ -4637,24 +4631,24 @@
         <v>14</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E131" s="0" t="s">
         <v>14</v>
@@ -4663,21 +4657,21 @@
         <v>14</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>11</v>
@@ -4689,21 +4683,21 @@
         <v>14</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>15</v>
@@ -4715,21 +4709,21 @@
         <v>14</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>110</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>18</v>
@@ -4741,21 +4735,21 @@
         <v>14</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>125</v>
+        <v>308</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>21</v>
@@ -4767,21 +4761,21 @@
         <v>14</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>24</v>
@@ -4793,21 +4787,21 @@
         <v>14</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>26</v>
@@ -4819,21 +4813,21 @@
         <v>14</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>29</v>
@@ -4845,24 +4839,24 @@
         <v>14</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E139" s="0" t="s">
         <v>14</v>
@@ -4871,24 +4865,24 @@
         <v>14</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E140" s="0" t="s">
         <v>14</v>
@@ -4897,24 +4891,24 @@
         <v>14</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E141" s="0" t="s">
         <v>14</v>
@@ -4923,21 +4917,21 @@
         <v>14</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>11</v>
@@ -4957,13 +4951,13 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>15</v>
@@ -4983,13 +4977,13 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>18</v>
@@ -5009,13 +5003,13 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>21</v>
@@ -5024,7 +5018,7 @@
         <v>8</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G145" s="0" t="s">
         <v>14</v>
@@ -5035,13 +5029,13 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>24</v>
@@ -5050,7 +5044,7 @@
         <v>8</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G146" s="0" t="s">
         <v>14</v>
@@ -5061,13 +5055,13 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>26</v>
@@ -5076,7 +5070,7 @@
         <v>8</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G147" s="0" t="s">
         <v>14</v>
@@ -5087,13 +5081,13 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>29</v>
@@ -5102,7 +5096,7 @@
         <v>8</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G148" s="0" t="s">
         <v>14</v>
@@ -5113,22 +5107,22 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E149" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G149" s="0" t="s">
         <v>14</v>
@@ -5139,22 +5133,22 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E150" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G150" s="0" t="s">
         <v>14</v>
@@ -5165,22 +5159,22 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E151" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G151" s="0" t="s">
         <v>14</v>
@@ -5191,13 +5185,13 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>11</v>
@@ -5217,13 +5211,13 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>15</v>
@@ -5243,13 +5237,13 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>18</v>
@@ -5269,13 +5263,13 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>21</v>
@@ -5284,7 +5278,7 @@
         <v>8</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G155" s="0" t="s">
         <v>14</v>
@@ -5295,13 +5289,13 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>24</v>
@@ -5310,7 +5304,7 @@
         <v>8</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G156" s="0" t="s">
         <v>14</v>
@@ -5321,13 +5315,13 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>26</v>
@@ -5336,7 +5330,7 @@
         <v>8</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G157" s="0" t="s">
         <v>14</v>
@@ -5347,13 +5341,13 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>29</v>
@@ -5362,7 +5356,7 @@
         <v>8</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G158" s="0" t="s">
         <v>14</v>
@@ -5373,22 +5367,22 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E159" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G159" s="0" t="s">
         <v>14</v>
@@ -5399,22 +5393,22 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E160" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G160" s="0" t="s">
         <v>14</v>
@@ -5425,22 +5419,22 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E161" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G161" s="0" t="s">
         <v>14</v>
@@ -5451,13 +5445,13 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>11</v>
@@ -5477,13 +5471,13 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>15</v>
@@ -5503,13 +5497,13 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>18</v>
@@ -5529,13 +5523,13 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>21</v>
@@ -5544,7 +5538,7 @@
         <v>8</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G165" s="0" t="s">
         <v>14</v>
@@ -5555,13 +5549,13 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>24</v>
@@ -5570,7 +5564,7 @@
         <v>8</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G166" s="0" t="s">
         <v>14</v>
@@ -5581,13 +5575,13 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>26</v>
@@ -5596,7 +5590,7 @@
         <v>8</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G167" s="0" t="s">
         <v>14</v>
@@ -5607,13 +5601,13 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>29</v>
@@ -5622,7 +5616,7 @@
         <v>8</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G168" s="0" t="s">
         <v>14</v>
@@ -5633,22 +5627,22 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E169" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G169" s="0" t="s">
         <v>14</v>
@@ -5659,22 +5653,22 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E170" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G170" s="0" t="s">
         <v>14</v>
@@ -5685,22 +5679,22 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E171" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G171" s="0" t="s">
         <v>14</v>
@@ -5711,13 +5705,13 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>11</v>
@@ -5737,13 +5731,13 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>15</v>
@@ -5763,13 +5757,13 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>18</v>
@@ -5789,13 +5783,13 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>21</v>
@@ -5804,7 +5798,7 @@
         <v>8</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G175" s="0" t="s">
         <v>14</v>
@@ -5815,13 +5809,13 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D176" s="0" t="s">
         <v>24</v>
@@ -5830,7 +5824,7 @@
         <v>8</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G176" s="0" t="s">
         <v>14</v>
@@ -5841,13 +5835,13 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>26</v>
@@ -5856,7 +5850,7 @@
         <v>8</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G177" s="0" t="s">
         <v>14</v>
@@ -5867,13 +5861,13 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D178" s="0" t="s">
         <v>29</v>
@@ -5882,7 +5876,7 @@
         <v>8</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G178" s="0" t="s">
         <v>14</v>
@@ -5893,22 +5887,22 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E179" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G179" s="0" t="s">
         <v>14</v>
@@ -5919,22 +5913,22 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E180" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G180" s="0" t="s">
         <v>14</v>
@@ -5945,22 +5939,22 @@
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E181" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G181" s="0" t="s">
         <v>14</v>
@@ -5971,13 +5965,13 @@
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>11</v>
@@ -5997,13 +5991,13 @@
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>15</v>
@@ -6023,13 +6017,13 @@
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>18</v>
@@ -6049,13 +6043,13 @@
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>21</v>
@@ -6064,7 +6058,7 @@
         <v>8</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G185" s="0" t="s">
         <v>14</v>
@@ -6075,13 +6069,13 @@
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>24</v>
@@ -6090,7 +6084,7 @@
         <v>8</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G186" s="0" t="s">
         <v>14</v>
@@ -6101,13 +6095,13 @@
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>26</v>
@@ -6116,7 +6110,7 @@
         <v>8</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G187" s="0" t="s">
         <v>14</v>
@@ -6127,13 +6121,13 @@
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>29</v>
@@ -6142,7 +6136,7 @@
         <v>8</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G188" s="0" t="s">
         <v>14</v>
@@ -6153,22 +6147,22 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E189" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G189" s="0" t="s">
         <v>14</v>
@@ -6179,22 +6173,22 @@
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E190" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G190" s="0" t="s">
         <v>14</v>
@@ -6205,22 +6199,22 @@
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E191" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G191" s="0" t="s">
         <v>14</v>
@@ -6231,13 +6225,13 @@
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>11</v>
@@ -6257,13 +6251,13 @@
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>15</v>
@@ -6283,13 +6277,13 @@
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>18</v>
@@ -6309,13 +6303,13 @@
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>21</v>
@@ -6324,7 +6318,7 @@
         <v>8</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G195" s="0" t="s">
         <v>14</v>
@@ -6335,13 +6329,13 @@
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>24</v>
@@ -6350,7 +6344,7 @@
         <v>8</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G196" s="0" t="s">
         <v>14</v>
@@ -6361,13 +6355,13 @@
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>26</v>
@@ -6376,7 +6370,7 @@
         <v>8</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G197" s="0" t="s">
         <v>14</v>
@@ -6387,13 +6381,13 @@
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>29</v>
@@ -6402,7 +6396,7 @@
         <v>8</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G198" s="0" t="s">
         <v>14</v>
@@ -6413,22 +6407,22 @@
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E199" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G199" s="0" t="s">
         <v>14</v>
@@ -6439,22 +6433,22 @@
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E200" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G200" s="0" t="s">
         <v>14</v>
@@ -6465,22 +6459,22 @@
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E201" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G201" s="0" t="s">
         <v>14</v>
@@ -6491,13 +6485,13 @@
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>11</v>
@@ -6517,13 +6511,13 @@
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>15</v>
@@ -6543,13 +6537,13 @@
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>18</v>
@@ -6569,13 +6563,13 @@
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>21</v>
@@ -6584,7 +6578,7 @@
         <v>8</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G205" s="0" t="s">
         <v>14</v>
@@ -6595,13 +6589,13 @@
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>24</v>
@@ -6610,7 +6604,7 @@
         <v>8</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G206" s="0" t="s">
         <v>14</v>
@@ -6621,13 +6615,13 @@
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>26</v>
@@ -6636,7 +6630,7 @@
         <v>8</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G207" s="0" t="s">
         <v>14</v>
@@ -6647,13 +6641,13 @@
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>29</v>
@@ -6662,7 +6656,7 @@
         <v>8</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G208" s="0" t="s">
         <v>14</v>
@@ -6673,22 +6667,22 @@
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E209" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G209" s="0" t="s">
         <v>14</v>
@@ -6699,22 +6693,22 @@
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E210" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G210" s="0" t="s">
         <v>14</v>
@@ -6725,22 +6719,22 @@
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E211" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G211" s="0" t="s">
         <v>14</v>
@@ -6751,16 +6745,16 @@
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E212" s="0" t="s">
         <v>14</v>
@@ -6769,24 +6763,24 @@
         <v>14</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E213" s="0" t="s">
         <v>14</v>
@@ -6795,24 +6789,24 @@
         <v>14</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E214" s="0" t="s">
         <v>14</v>
@@ -6821,24 +6815,24 @@
         <v>14</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E215" s="0" t="s">
         <v>14</v>
@@ -6847,24 +6841,24 @@
         <v>14</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E216" s="0" t="s">
         <v>14</v>
@@ -6873,21 +6867,21 @@
         <v>14</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D217" s="0" t="s">
         <v>26</v>
@@ -6899,21 +6893,21 @@
         <v>14</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D218" s="0" t="s">
         <v>29</v>
@@ -6933,16 +6927,16 @@
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E219" s="0" t="s">
         <v>14</v>
@@ -6951,24 +6945,24 @@
         <v>14</v>
       </c>
       <c r="G219" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="H219" s="0" t="s">
         <v>340</v>
-      </c>
-      <c r="H219" s="0" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E220" s="0" t="s">
         <v>14</v>
@@ -6977,24 +6971,24 @@
         <v>14</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E221" s="0" t="s">
         <v>14</v>
@@ -7003,24 +6997,24 @@
         <v>14</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>8</v>
+        <v>342</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C222" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B222" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C222" s="0" t="s">
-        <v>347</v>
-      </c>
       <c r="D222" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E222" s="0" t="s">
         <v>8</v>
@@ -7037,16 +7031,16 @@
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C223" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B223" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C223" s="0" t="s">
-        <v>347</v>
-      </c>
       <c r="D223" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E223" s="0" t="s">
         <v>8</v>
@@ -7063,16 +7057,16 @@
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C224" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B224" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C224" s="0" t="s">
-        <v>347</v>
-      </c>
       <c r="D224" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E224" s="0" t="s">
         <v>8</v>
@@ -7089,16 +7083,16 @@
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C225" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B225" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C225" s="0" t="s">
-        <v>347</v>
-      </c>
       <c r="D225" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E225" s="0" t="s">
         <v>8</v>
@@ -7115,16 +7109,16 @@
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C226" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B226" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C226" s="0" t="s">
-        <v>347</v>
-      </c>
       <c r="D226" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E226" s="0" t="s">
         <v>8</v>
@@ -7141,16 +7135,16 @@
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C227" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B227" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C227" s="0" t="s">
-        <v>347</v>
-      </c>
       <c r="D227" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E227" s="0" t="s">
         <v>8</v>
@@ -7167,16 +7161,16 @@
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C228" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B228" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C228" s="0" t="s">
-        <v>347</v>
-      </c>
       <c r="D228" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E228" s="0" t="s">
         <v>8</v>
@@ -7193,16 +7187,16 @@
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C229" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B229" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>347</v>
-      </c>
       <c r="D229" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E229" s="0" t="s">
         <v>8</v>
@@ -7219,16 +7213,16 @@
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C230" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B230" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C230" s="0" t="s">
-        <v>347</v>
-      </c>
       <c r="D230" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E230" s="0" t="s">
         <v>8</v>
@@ -7245,16 +7239,16 @@
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C231" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B231" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C231" s="0" t="s">
-        <v>347</v>
-      </c>
       <c r="D231" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E231" s="0" t="s">
         <v>8</v>
@@ -7271,13 +7265,13 @@
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C232" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C232" s="0" t="s">
-        <v>350</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>29</v>
@@ -7289,21 +7283,21 @@
         <v>14</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C233" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C233" s="0" t="s">
-        <v>350</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>29</v>
@@ -7315,21 +7309,21 @@
         <v>14</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C234" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="B234" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C234" s="0" t="s">
-        <v>350</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>29</v>
@@ -7341,21 +7335,21 @@
         <v>14</v>
       </c>
       <c r="G234" s="0" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C235" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C235" s="0" t="s">
-        <v>350</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>29</v>
@@ -7367,21 +7361,21 @@
         <v>14</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C236" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C236" s="0" t="s">
-        <v>350</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>29</v>
@@ -7393,21 +7387,21 @@
         <v>14</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C237" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C237" s="0" t="s">
-        <v>350</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>29</v>
@@ -7419,21 +7413,21 @@
         <v>14</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C238" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="B238" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C238" s="0" t="s">
-        <v>350</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>29</v>
@@ -7445,24 +7439,24 @@
         <v>14</v>
       </c>
       <c r="G238" s="0" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C239" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B239" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C239" s="0" t="s">
-        <v>350</v>
-      </c>
       <c r="D239" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E239" s="0" t="s">
         <v>14</v>
@@ -7471,24 +7465,24 @@
         <v>14</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C240" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B240" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C240" s="0" t="s">
-        <v>350</v>
-      </c>
       <c r="D240" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E240" s="0" t="s">
         <v>14</v>
@@ -7497,24 +7491,24 @@
         <v>14</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C241" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B241" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C241" s="0" t="s">
-        <v>350</v>
-      </c>
       <c r="D241" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E241" s="0" t="s">
         <v>14</v>
@@ -7523,21 +7517,21 @@
         <v>14</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C242" s="0" t="s">
         <v>364</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="C242" s="0" t="s">
-        <v>366</v>
       </c>
       <c r="D242" s="0" t="s">
         <v>21</v>
@@ -7549,21 +7543,21 @@
         <v>14</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C243" s="0" t="s">
         <v>364</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="C243" s="0" t="s">
-        <v>366</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>21</v>
@@ -7575,21 +7569,21 @@
         <v>14</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C244" s="0" t="s">
         <v>364</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="C244" s="0" t="s">
-        <v>366</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>21</v>
@@ -7601,21 +7595,21 @@
         <v>14</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C245" s="0" t="s">
         <v>364</v>
-      </c>
-      <c r="B245" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="C245" s="0" t="s">
-        <v>366</v>
       </c>
       <c r="D245" s="0" t="s">
         <v>21</v>
@@ -7627,21 +7621,21 @@
         <v>14</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C246" s="0" t="s">
         <v>364</v>
-      </c>
-      <c r="B246" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="C246" s="0" t="s">
-        <v>366</v>
       </c>
       <c r="D246" s="0" t="s">
         <v>24</v>
@@ -7653,21 +7647,21 @@
         <v>14</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C247" s="0" t="s">
         <v>364</v>
-      </c>
-      <c r="B247" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>366</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>26</v>
@@ -7679,21 +7673,21 @@
         <v>14</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C248" s="0" t="s">
         <v>364</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="C248" s="0" t="s">
-        <v>366</v>
       </c>
       <c r="D248" s="0" t="s">
         <v>29</v>
@@ -7705,24 +7699,24 @@
         <v>14</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C249" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="B249" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="C249" s="0" t="s">
-        <v>366</v>
-      </c>
       <c r="D249" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E249" s="0" t="s">
         <v>14</v>
@@ -7731,24 +7725,24 @@
         <v>14</v>
       </c>
       <c r="G249" s="0" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C250" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="B250" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="C250" s="0" t="s">
-        <v>366</v>
-      </c>
       <c r="D250" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E250" s="0" t="s">
         <v>14</v>
@@ -7757,24 +7751,24 @@
         <v>14</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C251" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="B251" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="C251" s="0" t="s">
-        <v>366</v>
-      </c>
       <c r="D251" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E251" s="0" t="s">
         <v>14</v>
@@ -7783,30 +7777,30 @@
         <v>14</v>
       </c>
       <c r="G251" s="0" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C252" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="C252" s="0" t="s">
-        <v>385</v>
       </c>
       <c r="D252" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G252" s="0" t="s">
         <v>14</v>
@@ -7817,22 +7811,22 @@
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C253" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="B253" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="C253" s="0" t="s">
-        <v>385</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G253" s="0" t="s">
         <v>14</v>
@@ -7843,22 +7837,22 @@
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C254" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="B254" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="C254" s="0" t="s">
-        <v>385</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>18</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G254" s="0" t="s">
         <v>14</v>
@@ -7869,22 +7863,22 @@
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C255" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="B255" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>385</v>
       </c>
       <c r="D255" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G255" s="0" t="s">
         <v>14</v>
@@ -7895,22 +7889,22 @@
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C256" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="B256" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="C256" s="0" t="s">
-        <v>385</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>388</v>
+        <v>155</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G256" s="0" t="s">
         <v>14</v>
@@ -7921,22 +7915,22 @@
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C257" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="C257" s="0" t="s">
-        <v>385</v>
       </c>
       <c r="D257" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G257" s="0" t="s">
         <v>14</v>
@@ -7947,22 +7941,22 @@
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C258" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="C258" s="0" t="s">
-        <v>385</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>388</v>
+        <v>166</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G258" s="0" t="s">
         <v>14</v>
@@ -7973,22 +7967,22 @@
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C259" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="B259" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="C259" s="0" t="s">
-        <v>385</v>
-      </c>
       <c r="D259" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E259" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="F259" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="F259" s="0" t="s">
-        <v>396</v>
       </c>
       <c r="G259" s="0" t="s">
         <v>14</v>
@@ -7999,22 +7993,22 @@
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C260" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="B260" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="C260" s="0" t="s">
-        <v>385</v>
-      </c>
       <c r="D260" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>397</v>
+        <v>159</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G260" s="0" t="s">
         <v>14</v>
@@ -8025,22 +8019,22 @@
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C261" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="B261" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="C261" s="0" t="s">
-        <v>385</v>
-      </c>
       <c r="D261" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G261" s="0" t="s">
         <v>14</v>
